--- a/excel/db_espesamiento_prueba.xlsx
+++ b/excel/db_espesamiento_prueba.xlsx
@@ -9,12 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
-    <sheet name="unidad_polimero" sheetId="1" r:id="rId1"/>
-    <sheet name="tipo_polimero" sheetId="2" r:id="rId2"/>
-    <sheet name="alineacion_polimero" sheetId="9" r:id="rId3"/>
+    <sheet name="fecha" sheetId="26" r:id="rId1"/>
+    <sheet name="unidad_polimero" sheetId="1" r:id="rId2"/>
+    <sheet name="alineacion_polimero" sheetId="10" r:id="rId3"/>
+    <sheet name="tipo_polimero" sheetId="2" r:id="rId4"/>
+    <sheet name="polimero_unidad" sheetId="15" r:id="rId5"/>
+    <sheet name="alineacion_unidad" sheetId="9" r:id="rId6"/>
+    <sheet name="preparacion_polimero" sheetId="25" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="35">
   <si>
     <t>unidad</t>
   </si>
@@ -106,16 +110,31 @@
     <t>Desh. - Lub</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>U.SNF</t>
-  </si>
-  <si>
     <t>Lub. UA</t>
   </si>
   <si>
     <t>Lub. UB</t>
+  </si>
+  <si>
+    <t>unidad_polimero</t>
+  </si>
+  <si>
+    <t>idpreparacion_polimero</t>
+  </si>
+  <si>
+    <t>fecha</t>
+  </si>
+  <si>
+    <t>tipo_polimero</t>
+  </si>
+  <si>
+    <t>peso</t>
+  </si>
+  <si>
+    <t>caudal_agua</t>
+  </si>
+  <si>
+    <t>dia</t>
   </si>
 </sst>
 </file>
@@ -151,8 +170,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -433,10 +457,3197 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A529"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>43831</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <f>A2+1</f>
+        <v>43832</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <f t="shared" ref="A4:A67" si="0">A3+1</f>
+        <v>43833</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <f t="shared" si="0"/>
+        <v>43834</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <f t="shared" si="0"/>
+        <v>43835</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <f t="shared" si="0"/>
+        <v>43836</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <f t="shared" si="0"/>
+        <v>43837</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <f t="shared" si="0"/>
+        <v>43838</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <f t="shared" si="0"/>
+        <v>43839</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <f t="shared" si="0"/>
+        <v>43840</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <f t="shared" si="0"/>
+        <v>43841</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <f t="shared" si="0"/>
+        <v>43842</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <f t="shared" si="0"/>
+        <v>43843</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <f t="shared" si="0"/>
+        <v>43844</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <f t="shared" si="0"/>
+        <v>43845</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <f t="shared" si="0"/>
+        <v>43846</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <f t="shared" si="0"/>
+        <v>43847</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <f t="shared" si="0"/>
+        <v>43848</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <f t="shared" si="0"/>
+        <v>43849</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <f t="shared" si="0"/>
+        <v>43850</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <f t="shared" si="0"/>
+        <v>43851</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <f t="shared" si="0"/>
+        <v>43852</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <f t="shared" si="0"/>
+        <v>43853</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <f t="shared" si="0"/>
+        <v>43854</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <f t="shared" si="0"/>
+        <v>43855</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <f t="shared" si="0"/>
+        <v>43856</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <f t="shared" si="0"/>
+        <v>43857</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <f t="shared" si="0"/>
+        <v>43858</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <f t="shared" si="0"/>
+        <v>43859</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <f t="shared" si="0"/>
+        <v>43860</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <f t="shared" si="0"/>
+        <v>43861</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <f t="shared" si="0"/>
+        <v>43862</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <f t="shared" si="0"/>
+        <v>43863</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <f t="shared" si="0"/>
+        <v>43864</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <f t="shared" si="0"/>
+        <v>43865</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <f t="shared" si="0"/>
+        <v>43866</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <f t="shared" si="0"/>
+        <v>43867</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <f t="shared" si="0"/>
+        <v>43868</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <f t="shared" si="0"/>
+        <v>43869</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <f t="shared" si="0"/>
+        <v>43870</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <f t="shared" si="0"/>
+        <v>43871</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <f t="shared" si="0"/>
+        <v>43872</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <f t="shared" si="0"/>
+        <v>43873</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <f t="shared" si="0"/>
+        <v>43874</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <f t="shared" si="0"/>
+        <v>43875</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <f t="shared" si="0"/>
+        <v>43876</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <f t="shared" si="0"/>
+        <v>43877</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <f t="shared" si="0"/>
+        <v>43878</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
+        <f t="shared" si="0"/>
+        <v>43879</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <f t="shared" si="0"/>
+        <v>43880</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <f t="shared" si="0"/>
+        <v>43881</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <f t="shared" si="0"/>
+        <v>43882</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <f t="shared" si="0"/>
+        <v>43883</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <f t="shared" si="0"/>
+        <v>43884</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <f t="shared" si="0"/>
+        <v>43885</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <f t="shared" si="0"/>
+        <v>43886</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
+        <f t="shared" si="0"/>
+        <v>43887</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <f t="shared" si="0"/>
+        <v>43888</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <f t="shared" si="0"/>
+        <v>43889</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <f t="shared" si="0"/>
+        <v>43890</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
+        <f t="shared" si="0"/>
+        <v>43891</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
+        <f t="shared" si="0"/>
+        <v>43892</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
+        <f t="shared" si="0"/>
+        <v>43893</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
+        <f t="shared" si="0"/>
+        <v>43894</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
+        <f t="shared" si="0"/>
+        <v>43895</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
+        <f t="shared" si="0"/>
+        <v>43896</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
+        <f t="shared" ref="A68:A131" si="1">A67+1</f>
+        <v>43897</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
+        <f t="shared" si="1"/>
+        <v>43898</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
+        <f t="shared" si="1"/>
+        <v>43899</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
+        <f t="shared" si="1"/>
+        <v>43900</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="3">
+        <f t="shared" si="1"/>
+        <v>43901</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="3">
+        <f t="shared" si="1"/>
+        <v>43902</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="3">
+        <f t="shared" si="1"/>
+        <v>43903</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="3">
+        <f t="shared" si="1"/>
+        <v>43904</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="3">
+        <f t="shared" si="1"/>
+        <v>43905</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="3">
+        <f t="shared" si="1"/>
+        <v>43906</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
+        <f t="shared" si="1"/>
+        <v>43907</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
+        <f t="shared" si="1"/>
+        <v>43908</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="3">
+        <f t="shared" si="1"/>
+        <v>43909</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="3">
+        <f t="shared" si="1"/>
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="3">
+        <f t="shared" si="1"/>
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="3">
+        <f t="shared" si="1"/>
+        <v>43912</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="3">
+        <f t="shared" si="1"/>
+        <v>43913</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="3">
+        <f t="shared" si="1"/>
+        <v>43914</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="3">
+        <f t="shared" si="1"/>
+        <v>43915</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="3">
+        <f t="shared" si="1"/>
+        <v>43916</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="3">
+        <f t="shared" si="1"/>
+        <v>43917</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="3">
+        <f t="shared" si="1"/>
+        <v>43918</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="3">
+        <f t="shared" si="1"/>
+        <v>43919</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="3">
+        <f t="shared" si="1"/>
+        <v>43920</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="3">
+        <f t="shared" si="1"/>
+        <v>43921</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="3">
+        <f t="shared" si="1"/>
+        <v>43922</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="3">
+        <f t="shared" si="1"/>
+        <v>43923</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="3">
+        <f t="shared" si="1"/>
+        <v>43924</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" s="3">
+        <f t="shared" si="1"/>
+        <v>43925</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="3">
+        <f t="shared" si="1"/>
+        <v>43926</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="3">
+        <f t="shared" si="1"/>
+        <v>43927</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="3">
+        <f t="shared" si="1"/>
+        <v>43928</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="3">
+        <f t="shared" si="1"/>
+        <v>43929</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" s="3">
+        <f t="shared" si="1"/>
+        <v>43930</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" s="3">
+        <f t="shared" si="1"/>
+        <v>43931</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" s="3">
+        <f t="shared" si="1"/>
+        <v>43932</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" s="3">
+        <f t="shared" si="1"/>
+        <v>43933</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" s="3">
+        <f t="shared" si="1"/>
+        <v>43934</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" s="3">
+        <f t="shared" si="1"/>
+        <v>43935</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" s="3">
+        <f t="shared" si="1"/>
+        <v>43936</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" s="3">
+        <f t="shared" si="1"/>
+        <v>43937</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" s="3">
+        <f t="shared" si="1"/>
+        <v>43938</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" s="3">
+        <f t="shared" si="1"/>
+        <v>43939</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" s="3">
+        <f t="shared" si="1"/>
+        <v>43940</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" s="3">
+        <f t="shared" si="1"/>
+        <v>43941</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" s="3">
+        <f t="shared" si="1"/>
+        <v>43942</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" s="3">
+        <f t="shared" si="1"/>
+        <v>43943</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" s="3">
+        <f t="shared" si="1"/>
+        <v>43944</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" s="3">
+        <f t="shared" si="1"/>
+        <v>43945</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" s="3">
+        <f t="shared" si="1"/>
+        <v>43946</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" s="3">
+        <f t="shared" si="1"/>
+        <v>43947</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" s="3">
+        <f t="shared" si="1"/>
+        <v>43948</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" s="3">
+        <f t="shared" si="1"/>
+        <v>43949</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" s="3">
+        <f t="shared" si="1"/>
+        <v>43950</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" s="3">
+        <f t="shared" si="1"/>
+        <v>43951</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" s="3">
+        <f t="shared" si="1"/>
+        <v>43952</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" s="3">
+        <f t="shared" si="1"/>
+        <v>43953</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" s="3">
+        <f t="shared" si="1"/>
+        <v>43954</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" s="3">
+        <f t="shared" si="1"/>
+        <v>43955</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" s="3">
+        <f t="shared" si="1"/>
+        <v>43956</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" s="3">
+        <f t="shared" si="1"/>
+        <v>43957</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" s="3">
+        <f t="shared" si="1"/>
+        <v>43958</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" s="3">
+        <f t="shared" si="1"/>
+        <v>43959</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" s="3">
+        <f t="shared" si="1"/>
+        <v>43960</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" s="3">
+        <f t="shared" ref="A132:A195" si="2">A131+1</f>
+        <v>43961</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" s="3">
+        <f t="shared" si="2"/>
+        <v>43962</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" s="3">
+        <f t="shared" si="2"/>
+        <v>43963</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" s="3">
+        <f t="shared" si="2"/>
+        <v>43964</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" s="3">
+        <f t="shared" si="2"/>
+        <v>43965</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" s="3">
+        <f t="shared" si="2"/>
+        <v>43966</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" s="3">
+        <f t="shared" si="2"/>
+        <v>43967</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" s="3">
+        <f t="shared" si="2"/>
+        <v>43968</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" s="3">
+        <f t="shared" si="2"/>
+        <v>43969</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" s="3">
+        <f t="shared" si="2"/>
+        <v>43970</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" s="3">
+        <f t="shared" si="2"/>
+        <v>43971</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" s="3">
+        <f t="shared" si="2"/>
+        <v>43972</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" s="3">
+        <f t="shared" si="2"/>
+        <v>43973</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" s="3">
+        <f t="shared" si="2"/>
+        <v>43974</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" s="3">
+        <f t="shared" si="2"/>
+        <v>43975</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" s="3">
+        <f t="shared" si="2"/>
+        <v>43976</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" s="3">
+        <f t="shared" si="2"/>
+        <v>43977</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" s="3">
+        <f t="shared" si="2"/>
+        <v>43978</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" s="3">
+        <f t="shared" si="2"/>
+        <v>43979</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" s="3">
+        <f t="shared" si="2"/>
+        <v>43980</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" s="3">
+        <f t="shared" si="2"/>
+        <v>43981</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" s="3">
+        <f t="shared" si="2"/>
+        <v>43982</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" s="3">
+        <f t="shared" si="2"/>
+        <v>43983</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" s="3">
+        <f t="shared" si="2"/>
+        <v>43984</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" s="3">
+        <f t="shared" si="2"/>
+        <v>43985</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" s="3">
+        <f t="shared" si="2"/>
+        <v>43986</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" s="3">
+        <f t="shared" si="2"/>
+        <v>43987</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" s="3">
+        <f t="shared" si="2"/>
+        <v>43988</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" s="3">
+        <f t="shared" si="2"/>
+        <v>43989</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" s="3">
+        <f t="shared" si="2"/>
+        <v>43990</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" s="3">
+        <f t="shared" si="2"/>
+        <v>43991</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" s="3">
+        <f t="shared" si="2"/>
+        <v>43992</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" s="3">
+        <f t="shared" si="2"/>
+        <v>43993</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" s="3">
+        <f t="shared" si="2"/>
+        <v>43994</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" s="3">
+        <f t="shared" si="2"/>
+        <v>43995</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" s="3">
+        <f t="shared" si="2"/>
+        <v>43996</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" s="3">
+        <f t="shared" si="2"/>
+        <v>43997</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" s="3">
+        <f t="shared" si="2"/>
+        <v>43998</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" s="3">
+        <f t="shared" si="2"/>
+        <v>43999</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" s="3">
+        <f t="shared" si="2"/>
+        <v>44000</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" s="3">
+        <f t="shared" si="2"/>
+        <v>44001</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" s="3">
+        <f t="shared" si="2"/>
+        <v>44002</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" s="3">
+        <f t="shared" si="2"/>
+        <v>44003</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" s="3">
+        <f t="shared" si="2"/>
+        <v>44004</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" s="3">
+        <f t="shared" si="2"/>
+        <v>44005</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" s="3">
+        <f t="shared" si="2"/>
+        <v>44006</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" s="3">
+        <f t="shared" si="2"/>
+        <v>44007</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" s="3">
+        <f t="shared" si="2"/>
+        <v>44008</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" s="3">
+        <f t="shared" si="2"/>
+        <v>44009</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" s="3">
+        <f t="shared" si="2"/>
+        <v>44010</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" s="3">
+        <f t="shared" si="2"/>
+        <v>44011</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" s="3">
+        <f t="shared" si="2"/>
+        <v>44012</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" s="3">
+        <f t="shared" si="2"/>
+        <v>44013</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" s="3">
+        <f t="shared" si="2"/>
+        <v>44014</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" s="3">
+        <f t="shared" si="2"/>
+        <v>44015</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" s="3">
+        <f t="shared" si="2"/>
+        <v>44016</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" s="3">
+        <f t="shared" si="2"/>
+        <v>44017</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" s="3">
+        <f t="shared" si="2"/>
+        <v>44018</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" s="3">
+        <f t="shared" si="2"/>
+        <v>44019</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" s="3">
+        <f t="shared" si="2"/>
+        <v>44020</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" s="3">
+        <f t="shared" si="2"/>
+        <v>44021</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" s="3">
+        <f t="shared" si="2"/>
+        <v>44022</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" s="3">
+        <f t="shared" si="2"/>
+        <v>44023</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" s="3">
+        <f t="shared" si="2"/>
+        <v>44024</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" s="3">
+        <f t="shared" ref="A196:A259" si="3">A195+1</f>
+        <v>44025</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" s="3">
+        <f t="shared" si="3"/>
+        <v>44026</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" s="3">
+        <f t="shared" si="3"/>
+        <v>44027</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" s="3">
+        <f t="shared" si="3"/>
+        <v>44028</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" s="3">
+        <f t="shared" si="3"/>
+        <v>44029</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" s="3">
+        <f t="shared" si="3"/>
+        <v>44030</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202" s="3">
+        <f t="shared" si="3"/>
+        <v>44031</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" s="3">
+        <f t="shared" si="3"/>
+        <v>44032</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204" s="3">
+        <f t="shared" si="3"/>
+        <v>44033</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205" s="3">
+        <f t="shared" si="3"/>
+        <v>44034</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206" s="3">
+        <f t="shared" si="3"/>
+        <v>44035</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207" s="3">
+        <f t="shared" si="3"/>
+        <v>44036</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208" s="3">
+        <f t="shared" si="3"/>
+        <v>44037</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" s="3">
+        <f t="shared" si="3"/>
+        <v>44038</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210" s="3">
+        <f t="shared" si="3"/>
+        <v>44039</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211" s="3">
+        <f t="shared" si="3"/>
+        <v>44040</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212" s="3">
+        <f t="shared" si="3"/>
+        <v>44041</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213" s="3">
+        <f t="shared" si="3"/>
+        <v>44042</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214" s="3">
+        <f t="shared" si="3"/>
+        <v>44043</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215" s="3">
+        <f t="shared" si="3"/>
+        <v>44044</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216" s="3">
+        <f t="shared" si="3"/>
+        <v>44045</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217" s="3">
+        <f t="shared" si="3"/>
+        <v>44046</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218" s="3">
+        <f t="shared" si="3"/>
+        <v>44047</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219" s="3">
+        <f t="shared" si="3"/>
+        <v>44048</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220" s="3">
+        <f t="shared" si="3"/>
+        <v>44049</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221" s="3">
+        <f t="shared" si="3"/>
+        <v>44050</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222" s="3">
+        <f t="shared" si="3"/>
+        <v>44051</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223" s="3">
+        <f t="shared" si="3"/>
+        <v>44052</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224" s="3">
+        <f t="shared" si="3"/>
+        <v>44053</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225" s="3">
+        <f t="shared" si="3"/>
+        <v>44054</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226" s="3">
+        <f t="shared" si="3"/>
+        <v>44055</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227" s="3">
+        <f t="shared" si="3"/>
+        <v>44056</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228" s="3">
+        <f t="shared" si="3"/>
+        <v>44057</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229" s="3">
+        <f t="shared" si="3"/>
+        <v>44058</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A230" s="3">
+        <f t="shared" si="3"/>
+        <v>44059</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231" s="3">
+        <f t="shared" si="3"/>
+        <v>44060</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A232" s="3">
+        <f t="shared" si="3"/>
+        <v>44061</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A233" s="3">
+        <f t="shared" si="3"/>
+        <v>44062</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234" s="3">
+        <f t="shared" si="3"/>
+        <v>44063</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A235" s="3">
+        <f t="shared" si="3"/>
+        <v>44064</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A236" s="3">
+        <f t="shared" si="3"/>
+        <v>44065</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A237" s="3">
+        <f t="shared" si="3"/>
+        <v>44066</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238" s="3">
+        <f t="shared" si="3"/>
+        <v>44067</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A239" s="3">
+        <f t="shared" si="3"/>
+        <v>44068</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A240" s="3">
+        <f t="shared" si="3"/>
+        <v>44069</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A241" s="3">
+        <f t="shared" si="3"/>
+        <v>44070</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A242" s="3">
+        <f t="shared" si="3"/>
+        <v>44071</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A243" s="3">
+        <f t="shared" si="3"/>
+        <v>44072</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244" s="3">
+        <f t="shared" si="3"/>
+        <v>44073</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245" s="3">
+        <f t="shared" si="3"/>
+        <v>44074</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246" s="3">
+        <f t="shared" si="3"/>
+        <v>44075</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A247" s="3">
+        <f t="shared" si="3"/>
+        <v>44076</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A248" s="3">
+        <f t="shared" si="3"/>
+        <v>44077</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A249" s="3">
+        <f t="shared" si="3"/>
+        <v>44078</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A250" s="3">
+        <f t="shared" si="3"/>
+        <v>44079</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A251" s="3">
+        <f t="shared" si="3"/>
+        <v>44080</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A252" s="3">
+        <f t="shared" si="3"/>
+        <v>44081</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A253" s="3">
+        <f t="shared" si="3"/>
+        <v>44082</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A254" s="3">
+        <f t="shared" si="3"/>
+        <v>44083</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A255" s="3">
+        <f t="shared" si="3"/>
+        <v>44084</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A256" s="3">
+        <f t="shared" si="3"/>
+        <v>44085</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A257" s="3">
+        <f t="shared" si="3"/>
+        <v>44086</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A258" s="3">
+        <f t="shared" si="3"/>
+        <v>44087</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A259" s="3">
+        <f t="shared" si="3"/>
+        <v>44088</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A260" s="3">
+        <f t="shared" ref="A260:A323" si="4">A259+1</f>
+        <v>44089</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A261" s="3">
+        <f t="shared" si="4"/>
+        <v>44090</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A262" s="3">
+        <f t="shared" si="4"/>
+        <v>44091</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A263" s="3">
+        <f t="shared" si="4"/>
+        <v>44092</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A264" s="3">
+        <f t="shared" si="4"/>
+        <v>44093</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A265" s="3">
+        <f t="shared" si="4"/>
+        <v>44094</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A266" s="3">
+        <f t="shared" si="4"/>
+        <v>44095</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A267" s="3">
+        <f t="shared" si="4"/>
+        <v>44096</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A268" s="3">
+        <f t="shared" si="4"/>
+        <v>44097</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A269" s="3">
+        <f t="shared" si="4"/>
+        <v>44098</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A270" s="3">
+        <f t="shared" si="4"/>
+        <v>44099</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A271" s="3">
+        <f t="shared" si="4"/>
+        <v>44100</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A272" s="3">
+        <f t="shared" si="4"/>
+        <v>44101</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A273" s="3">
+        <f t="shared" si="4"/>
+        <v>44102</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A274" s="3">
+        <f t="shared" si="4"/>
+        <v>44103</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A275" s="3">
+        <f t="shared" si="4"/>
+        <v>44104</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A276" s="3">
+        <f t="shared" si="4"/>
+        <v>44105</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A277" s="3">
+        <f t="shared" si="4"/>
+        <v>44106</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A278" s="3">
+        <f t="shared" si="4"/>
+        <v>44107</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A279" s="3">
+        <f t="shared" si="4"/>
+        <v>44108</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A280" s="3">
+        <f t="shared" si="4"/>
+        <v>44109</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A281" s="3">
+        <f t="shared" si="4"/>
+        <v>44110</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A282" s="3">
+        <f t="shared" si="4"/>
+        <v>44111</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A283" s="3">
+        <f t="shared" si="4"/>
+        <v>44112</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A284" s="3">
+        <f t="shared" si="4"/>
+        <v>44113</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A285" s="3">
+        <f t="shared" si="4"/>
+        <v>44114</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A286" s="3">
+        <f t="shared" si="4"/>
+        <v>44115</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A287" s="3">
+        <f t="shared" si="4"/>
+        <v>44116</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A288" s="3">
+        <f t="shared" si="4"/>
+        <v>44117</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A289" s="3">
+        <f t="shared" si="4"/>
+        <v>44118</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A290" s="3">
+        <f t="shared" si="4"/>
+        <v>44119</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A291" s="3">
+        <f t="shared" si="4"/>
+        <v>44120</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A292" s="3">
+        <f t="shared" si="4"/>
+        <v>44121</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A293" s="3">
+        <f t="shared" si="4"/>
+        <v>44122</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A294" s="3">
+        <f t="shared" si="4"/>
+        <v>44123</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A295" s="3">
+        <f t="shared" si="4"/>
+        <v>44124</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A296" s="3">
+        <f t="shared" si="4"/>
+        <v>44125</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A297" s="3">
+        <f t="shared" si="4"/>
+        <v>44126</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A298" s="3">
+        <f t="shared" si="4"/>
+        <v>44127</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A299" s="3">
+        <f t="shared" si="4"/>
+        <v>44128</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A300" s="3">
+        <f t="shared" si="4"/>
+        <v>44129</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A301" s="3">
+        <f t="shared" si="4"/>
+        <v>44130</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A302" s="3">
+        <f t="shared" si="4"/>
+        <v>44131</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A303" s="3">
+        <f t="shared" si="4"/>
+        <v>44132</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A304" s="3">
+        <f t="shared" si="4"/>
+        <v>44133</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A305" s="3">
+        <f t="shared" si="4"/>
+        <v>44134</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A306" s="3">
+        <f t="shared" si="4"/>
+        <v>44135</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A307" s="3">
+        <f t="shared" si="4"/>
+        <v>44136</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A308" s="3">
+        <f t="shared" si="4"/>
+        <v>44137</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A309" s="3">
+        <f t="shared" si="4"/>
+        <v>44138</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A310" s="3">
+        <f t="shared" si="4"/>
+        <v>44139</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A311" s="3">
+        <f t="shared" si="4"/>
+        <v>44140</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A312" s="3">
+        <f t="shared" si="4"/>
+        <v>44141</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A313" s="3">
+        <f t="shared" si="4"/>
+        <v>44142</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A314" s="3">
+        <f t="shared" si="4"/>
+        <v>44143</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A315" s="3">
+        <f t="shared" si="4"/>
+        <v>44144</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A316" s="3">
+        <f t="shared" si="4"/>
+        <v>44145</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A317" s="3">
+        <f t="shared" si="4"/>
+        <v>44146</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A318" s="3">
+        <f t="shared" si="4"/>
+        <v>44147</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A319" s="3">
+        <f t="shared" si="4"/>
+        <v>44148</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A320" s="3">
+        <f t="shared" si="4"/>
+        <v>44149</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A321" s="3">
+        <f t="shared" si="4"/>
+        <v>44150</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A322" s="3">
+        <f t="shared" si="4"/>
+        <v>44151</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A323" s="3">
+        <f t="shared" si="4"/>
+        <v>44152</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A324" s="3">
+        <f t="shared" ref="A324:A387" si="5">A323+1</f>
+        <v>44153</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A325" s="3">
+        <f t="shared" si="5"/>
+        <v>44154</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A326" s="3">
+        <f t="shared" si="5"/>
+        <v>44155</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A327" s="3">
+        <f t="shared" si="5"/>
+        <v>44156</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A328" s="3">
+        <f t="shared" si="5"/>
+        <v>44157</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A329" s="3">
+        <f t="shared" si="5"/>
+        <v>44158</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A330" s="3">
+        <f t="shared" si="5"/>
+        <v>44159</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A331" s="3">
+        <f t="shared" si="5"/>
+        <v>44160</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A332" s="3">
+        <f t="shared" si="5"/>
+        <v>44161</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A333" s="3">
+        <f t="shared" si="5"/>
+        <v>44162</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A334" s="3">
+        <f t="shared" si="5"/>
+        <v>44163</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A335" s="3">
+        <f t="shared" si="5"/>
+        <v>44164</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A336" s="3">
+        <f t="shared" si="5"/>
+        <v>44165</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A337" s="3">
+        <f t="shared" si="5"/>
+        <v>44166</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A338" s="3">
+        <f t="shared" si="5"/>
+        <v>44167</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A339" s="3">
+        <f t="shared" si="5"/>
+        <v>44168</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A340" s="3">
+        <f t="shared" si="5"/>
+        <v>44169</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A341" s="3">
+        <f t="shared" si="5"/>
+        <v>44170</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A342" s="3">
+        <f t="shared" si="5"/>
+        <v>44171</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A343" s="3">
+        <f t="shared" si="5"/>
+        <v>44172</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A344" s="3">
+        <f t="shared" si="5"/>
+        <v>44173</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A345" s="3">
+        <f t="shared" si="5"/>
+        <v>44174</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A346" s="3">
+        <f t="shared" si="5"/>
+        <v>44175</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A347" s="3">
+        <f t="shared" si="5"/>
+        <v>44176</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A348" s="3">
+        <f t="shared" si="5"/>
+        <v>44177</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A349" s="3">
+        <f t="shared" si="5"/>
+        <v>44178</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A350" s="3">
+        <f t="shared" si="5"/>
+        <v>44179</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A351" s="3">
+        <f t="shared" si="5"/>
+        <v>44180</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A352" s="3">
+        <f t="shared" si="5"/>
+        <v>44181</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A353" s="3">
+        <f t="shared" si="5"/>
+        <v>44182</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A354" s="3">
+        <f t="shared" si="5"/>
+        <v>44183</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A355" s="3">
+        <f t="shared" si="5"/>
+        <v>44184</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A356" s="3">
+        <f t="shared" si="5"/>
+        <v>44185</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A357" s="3">
+        <f t="shared" si="5"/>
+        <v>44186</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A358" s="3">
+        <f t="shared" si="5"/>
+        <v>44187</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A359" s="3">
+        <f t="shared" si="5"/>
+        <v>44188</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A360" s="3">
+        <f t="shared" si="5"/>
+        <v>44189</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A361" s="3">
+        <f t="shared" si="5"/>
+        <v>44190</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A362" s="3">
+        <f t="shared" si="5"/>
+        <v>44191</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A363" s="3">
+        <f t="shared" si="5"/>
+        <v>44192</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A364" s="3">
+        <f t="shared" si="5"/>
+        <v>44193</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A365" s="3">
+        <f t="shared" si="5"/>
+        <v>44194</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A366" s="3">
+        <f t="shared" si="5"/>
+        <v>44195</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A367" s="3">
+        <f t="shared" si="5"/>
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A368" s="3">
+        <f t="shared" si="5"/>
+        <v>44197</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A369" s="3">
+        <f t="shared" si="5"/>
+        <v>44198</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A370" s="3">
+        <f t="shared" si="5"/>
+        <v>44199</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A371" s="3">
+        <f t="shared" si="5"/>
+        <v>44200</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A372" s="3">
+        <f t="shared" si="5"/>
+        <v>44201</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A373" s="3">
+        <f t="shared" si="5"/>
+        <v>44202</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A374" s="3">
+        <f t="shared" si="5"/>
+        <v>44203</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A375" s="3">
+        <f t="shared" si="5"/>
+        <v>44204</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A376" s="3">
+        <f t="shared" si="5"/>
+        <v>44205</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A377" s="3">
+        <f t="shared" si="5"/>
+        <v>44206</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A378" s="3">
+        <f t="shared" si="5"/>
+        <v>44207</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A379" s="3">
+        <f t="shared" si="5"/>
+        <v>44208</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A380" s="3">
+        <f t="shared" si="5"/>
+        <v>44209</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A381" s="3">
+        <f t="shared" si="5"/>
+        <v>44210</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A382" s="3">
+        <f t="shared" si="5"/>
+        <v>44211</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A383" s="3">
+        <f t="shared" si="5"/>
+        <v>44212</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A384" s="3">
+        <f t="shared" si="5"/>
+        <v>44213</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A385" s="3">
+        <f t="shared" si="5"/>
+        <v>44214</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A386" s="3">
+        <f t="shared" si="5"/>
+        <v>44215</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A387" s="3">
+        <f t="shared" si="5"/>
+        <v>44216</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A388" s="3">
+        <f t="shared" ref="A388:A451" si="6">A387+1</f>
+        <v>44217</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A389" s="3">
+        <f t="shared" si="6"/>
+        <v>44218</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A390" s="3">
+        <f t="shared" si="6"/>
+        <v>44219</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A391" s="3">
+        <f t="shared" si="6"/>
+        <v>44220</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A392" s="3">
+        <f t="shared" si="6"/>
+        <v>44221</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A393" s="3">
+        <f t="shared" si="6"/>
+        <v>44222</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A394" s="3">
+        <f t="shared" si="6"/>
+        <v>44223</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A395" s="3">
+        <f t="shared" si="6"/>
+        <v>44224</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A396" s="3">
+        <f t="shared" si="6"/>
+        <v>44225</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A397" s="3">
+        <f t="shared" si="6"/>
+        <v>44226</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A398" s="3">
+        <f t="shared" si="6"/>
+        <v>44227</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A399" s="3">
+        <f t="shared" si="6"/>
+        <v>44228</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A400" s="3">
+        <f t="shared" si="6"/>
+        <v>44229</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A401" s="3">
+        <f t="shared" si="6"/>
+        <v>44230</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A402" s="3">
+        <f t="shared" si="6"/>
+        <v>44231</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A403" s="3">
+        <f t="shared" si="6"/>
+        <v>44232</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A404" s="3">
+        <f t="shared" si="6"/>
+        <v>44233</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A405" s="3">
+        <f t="shared" si="6"/>
+        <v>44234</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A406" s="3">
+        <f t="shared" si="6"/>
+        <v>44235</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A407" s="3">
+        <f t="shared" si="6"/>
+        <v>44236</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A408" s="3">
+        <f t="shared" si="6"/>
+        <v>44237</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A409" s="3">
+        <f t="shared" si="6"/>
+        <v>44238</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A410" s="3">
+        <f t="shared" si="6"/>
+        <v>44239</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A411" s="3">
+        <f t="shared" si="6"/>
+        <v>44240</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A412" s="3">
+        <f t="shared" si="6"/>
+        <v>44241</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A413" s="3">
+        <f t="shared" si="6"/>
+        <v>44242</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A414" s="3">
+        <f t="shared" si="6"/>
+        <v>44243</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A415" s="3">
+        <f t="shared" si="6"/>
+        <v>44244</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A416" s="3">
+        <f t="shared" si="6"/>
+        <v>44245</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A417" s="3">
+        <f t="shared" si="6"/>
+        <v>44246</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A418" s="3">
+        <f t="shared" si="6"/>
+        <v>44247</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A419" s="3">
+        <f t="shared" si="6"/>
+        <v>44248</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A420" s="3">
+        <f t="shared" si="6"/>
+        <v>44249</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A421" s="3">
+        <f t="shared" si="6"/>
+        <v>44250</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A422" s="3">
+        <f t="shared" si="6"/>
+        <v>44251</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A423" s="3">
+        <f t="shared" si="6"/>
+        <v>44252</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A424" s="3">
+        <f t="shared" si="6"/>
+        <v>44253</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A425" s="3">
+        <f t="shared" si="6"/>
+        <v>44254</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A426" s="3">
+        <f t="shared" si="6"/>
+        <v>44255</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A427" s="3">
+        <f t="shared" si="6"/>
+        <v>44256</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A428" s="3">
+        <f t="shared" si="6"/>
+        <v>44257</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A429" s="3">
+        <f t="shared" si="6"/>
+        <v>44258</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A430" s="3">
+        <f t="shared" si="6"/>
+        <v>44259</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A431" s="3">
+        <f t="shared" si="6"/>
+        <v>44260</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A432" s="3">
+        <f t="shared" si="6"/>
+        <v>44261</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A433" s="3">
+        <f t="shared" si="6"/>
+        <v>44262</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A434" s="3">
+        <f t="shared" si="6"/>
+        <v>44263</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A435" s="3">
+        <f t="shared" si="6"/>
+        <v>44264</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A436" s="3">
+        <f t="shared" si="6"/>
+        <v>44265</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A437" s="3">
+        <f t="shared" si="6"/>
+        <v>44266</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A438" s="3">
+        <f t="shared" si="6"/>
+        <v>44267</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A439" s="3">
+        <f t="shared" si="6"/>
+        <v>44268</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A440" s="3">
+        <f t="shared" si="6"/>
+        <v>44269</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A441" s="3">
+        <f t="shared" si="6"/>
+        <v>44270</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A442" s="3">
+        <f t="shared" si="6"/>
+        <v>44271</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A443" s="3">
+        <f t="shared" si="6"/>
+        <v>44272</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A444" s="3">
+        <f t="shared" si="6"/>
+        <v>44273</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A445" s="3">
+        <f t="shared" si="6"/>
+        <v>44274</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A446" s="3">
+        <f t="shared" si="6"/>
+        <v>44275</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A447" s="3">
+        <f t="shared" si="6"/>
+        <v>44276</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A448" s="3">
+        <f t="shared" si="6"/>
+        <v>44277</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A449" s="3">
+        <f t="shared" si="6"/>
+        <v>44278</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A450" s="3">
+        <f t="shared" si="6"/>
+        <v>44279</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A451" s="3">
+        <f t="shared" si="6"/>
+        <v>44280</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A452" s="3">
+        <f t="shared" ref="A452:A515" si="7">A451+1</f>
+        <v>44281</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A453" s="3">
+        <f t="shared" si="7"/>
+        <v>44282</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A454" s="3">
+        <f t="shared" si="7"/>
+        <v>44283</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A455" s="3">
+        <f t="shared" si="7"/>
+        <v>44284</v>
+      </c>
+    </row>
+    <row r="456" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A456" s="3">
+        <f t="shared" si="7"/>
+        <v>44285</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A457" s="3">
+        <f t="shared" si="7"/>
+        <v>44286</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A458" s="3">
+        <f t="shared" si="7"/>
+        <v>44287</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A459" s="3">
+        <f t="shared" si="7"/>
+        <v>44288</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A460" s="3">
+        <f t="shared" si="7"/>
+        <v>44289</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A461" s="3">
+        <f t="shared" si="7"/>
+        <v>44290</v>
+      </c>
+    </row>
+    <row r="462" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A462" s="3">
+        <f t="shared" si="7"/>
+        <v>44291</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A463" s="3">
+        <f t="shared" si="7"/>
+        <v>44292</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A464" s="3">
+        <f t="shared" si="7"/>
+        <v>44293</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A465" s="3">
+        <f t="shared" si="7"/>
+        <v>44294</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A466" s="3">
+        <f t="shared" si="7"/>
+        <v>44295</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A467" s="3">
+        <f t="shared" si="7"/>
+        <v>44296</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A468" s="3">
+        <f t="shared" si="7"/>
+        <v>44297</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A469" s="3">
+        <f t="shared" si="7"/>
+        <v>44298</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A470" s="3">
+        <f t="shared" si="7"/>
+        <v>44299</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A471" s="3">
+        <f t="shared" si="7"/>
+        <v>44300</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A472" s="3">
+        <f t="shared" si="7"/>
+        <v>44301</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A473" s="3">
+        <f t="shared" si="7"/>
+        <v>44302</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A474" s="3">
+        <f t="shared" si="7"/>
+        <v>44303</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A475" s="3">
+        <f t="shared" si="7"/>
+        <v>44304</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A476" s="3">
+        <f t="shared" si="7"/>
+        <v>44305</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A477" s="3">
+        <f t="shared" si="7"/>
+        <v>44306</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A478" s="3">
+        <f t="shared" si="7"/>
+        <v>44307</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A479" s="3">
+        <f t="shared" si="7"/>
+        <v>44308</v>
+      </c>
+    </row>
+    <row r="480" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A480" s="3">
+        <f t="shared" si="7"/>
+        <v>44309</v>
+      </c>
+    </row>
+    <row r="481" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A481" s="3">
+        <f t="shared" si="7"/>
+        <v>44310</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A482" s="3">
+        <f t="shared" si="7"/>
+        <v>44311</v>
+      </c>
+    </row>
+    <row r="483" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A483" s="3">
+        <f t="shared" si="7"/>
+        <v>44312</v>
+      </c>
+    </row>
+    <row r="484" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A484" s="3">
+        <f t="shared" si="7"/>
+        <v>44313</v>
+      </c>
+    </row>
+    <row r="485" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A485" s="3">
+        <f t="shared" si="7"/>
+        <v>44314</v>
+      </c>
+    </row>
+    <row r="486" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A486" s="3">
+        <f t="shared" si="7"/>
+        <v>44315</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A487" s="3">
+        <f t="shared" si="7"/>
+        <v>44316</v>
+      </c>
+    </row>
+    <row r="488" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A488" s="3">
+        <f t="shared" si="7"/>
+        <v>44317</v>
+      </c>
+    </row>
+    <row r="489" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A489" s="3">
+        <f t="shared" si="7"/>
+        <v>44318</v>
+      </c>
+    </row>
+    <row r="490" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A490" s="3">
+        <f t="shared" si="7"/>
+        <v>44319</v>
+      </c>
+    </row>
+    <row r="491" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A491" s="3">
+        <f t="shared" si="7"/>
+        <v>44320</v>
+      </c>
+    </row>
+    <row r="492" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A492" s="3">
+        <f t="shared" si="7"/>
+        <v>44321</v>
+      </c>
+    </row>
+    <row r="493" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A493" s="3">
+        <f t="shared" si="7"/>
+        <v>44322</v>
+      </c>
+    </row>
+    <row r="494" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A494" s="3">
+        <f t="shared" si="7"/>
+        <v>44323</v>
+      </c>
+    </row>
+    <row r="495" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A495" s="3">
+        <f t="shared" si="7"/>
+        <v>44324</v>
+      </c>
+    </row>
+    <row r="496" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A496" s="3">
+        <f t="shared" si="7"/>
+        <v>44325</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A497" s="3">
+        <f t="shared" si="7"/>
+        <v>44326</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A498" s="3">
+        <f t="shared" si="7"/>
+        <v>44327</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A499" s="3">
+        <f t="shared" si="7"/>
+        <v>44328</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A500" s="3">
+        <f t="shared" si="7"/>
+        <v>44329</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A501" s="3">
+        <f t="shared" si="7"/>
+        <v>44330</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A502" s="3">
+        <f t="shared" si="7"/>
+        <v>44331</v>
+      </c>
+    </row>
+    <row r="503" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A503" s="3">
+        <f t="shared" si="7"/>
+        <v>44332</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A504" s="3">
+        <f t="shared" si="7"/>
+        <v>44333</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A505" s="3">
+        <f t="shared" si="7"/>
+        <v>44334</v>
+      </c>
+    </row>
+    <row r="506" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A506" s="3">
+        <f t="shared" si="7"/>
+        <v>44335</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A507" s="3">
+        <f t="shared" si="7"/>
+        <v>44336</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A508" s="3">
+        <f t="shared" si="7"/>
+        <v>44337</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A509" s="3">
+        <f t="shared" si="7"/>
+        <v>44338</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A510" s="3">
+        <f t="shared" si="7"/>
+        <v>44339</v>
+      </c>
+    </row>
+    <row r="511" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A511" s="3">
+        <f t="shared" si="7"/>
+        <v>44340</v>
+      </c>
+    </row>
+    <row r="512" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A512" s="3">
+        <f t="shared" si="7"/>
+        <v>44341</v>
+      </c>
+    </row>
+    <row r="513" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A513" s="3">
+        <f t="shared" si="7"/>
+        <v>44342</v>
+      </c>
+    </row>
+    <row r="514" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A514" s="3">
+        <f t="shared" si="7"/>
+        <v>44343</v>
+      </c>
+    </row>
+    <row r="515" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A515" s="3">
+        <f t="shared" si="7"/>
+        <v>44344</v>
+      </c>
+    </row>
+    <row r="516" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A516" s="3">
+        <f t="shared" ref="A516:A529" si="8">A515+1</f>
+        <v>44345</v>
+      </c>
+    </row>
+    <row r="517" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A517" s="3">
+        <f t="shared" si="8"/>
+        <v>44346</v>
+      </c>
+    </row>
+    <row r="518" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A518" s="3">
+        <f t="shared" si="8"/>
+        <v>44347</v>
+      </c>
+    </row>
+    <row r="519" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A519" s="3">
+        <f t="shared" si="8"/>
+        <v>44348</v>
+      </c>
+    </row>
+    <row r="520" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A520" s="3">
+        <f t="shared" si="8"/>
+        <v>44349</v>
+      </c>
+    </row>
+    <row r="521" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A521" s="3">
+        <f t="shared" si="8"/>
+        <v>44350</v>
+      </c>
+    </row>
+    <row r="522" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A522" s="3">
+        <f t="shared" si="8"/>
+        <v>44351</v>
+      </c>
+    </row>
+    <row r="523" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A523" s="3">
+        <f t="shared" si="8"/>
+        <v>44352</v>
+      </c>
+    </row>
+    <row r="524" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A524" s="3">
+        <f t="shared" si="8"/>
+        <v>44353</v>
+      </c>
+    </row>
+    <row r="525" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A525" s="3">
+        <f t="shared" si="8"/>
+        <v>44354</v>
+      </c>
+    </row>
+    <row r="526" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A526" s="3">
+        <f t="shared" si="8"/>
+        <v>44355</v>
+      </c>
+    </row>
+    <row r="527" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A527" s="3">
+        <f t="shared" si="8"/>
+        <v>44356</v>
+      </c>
+    </row>
+    <row r="528" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A528" s="3">
+        <f t="shared" si="8"/>
+        <v>44357</v>
+      </c>
+    </row>
+    <row r="529" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A529" s="3">
+        <f t="shared" si="8"/>
+        <v>44358</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A2" sqref="A2:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -471,12 +3682,12 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
@@ -494,12 +3705,100 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -552,22 +3851,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -575,10 +3875,122 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -607,199 +4019,553 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
         <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
         <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
         <v>4</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
         <v>4</v>
-      </c>
-      <c r="B9" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
         <v>4</v>
-      </c>
-      <c r="B10" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
         <v>6</v>
-      </c>
-      <c r="B11" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
         <v>6</v>
-      </c>
-      <c r="B12" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
         <v>6</v>
-      </c>
-      <c r="B13" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
         <v>6</v>
-      </c>
-      <c r="B14" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
         <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
         <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" t="s">
         <v>24</v>
-      </c>
-      <c r="B17" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" t="s">
         <v>24</v>
-      </c>
-      <c r="B18" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" t="s">
         <v>24</v>
-      </c>
-      <c r="B19" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
         <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" t="s">
         <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" t="s">
         <v>23</v>
-      </c>
-      <c r="B22" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" t="s">
         <v>25</v>
-      </c>
-      <c r="B23" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" t="s">
         <v>25</v>
-      </c>
-      <c r="B24" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" t="s">
         <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
         <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" t="s">
         <v>8</v>
-      </c>
-      <c r="B27" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" t="s">
         <v>8</v>
       </c>
-      <c r="B28" t="s">
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="B31" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="B33" s="1" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>20</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D37">
+        <f>SUM(D2:D36)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="17.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>43831</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>675.66986083984375</v>
+      </c>
+      <c r="F2">
+        <v>293.46624755859375</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <f>B2</f>
+        <v>43831</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>324.853759765625</v>
+      </c>
+      <c r="F3">
+        <v>134.55604553222656</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <f>B3</f>
+        <v>43831</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4">
+        <v>194.97030639648437</v>
+      </c>
+      <c r="F4">
+        <v>102.04192352294922</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <f>B4</f>
+        <v>43831</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5">
+        <v>194.66702270507812</v>
+      </c>
+      <c r="F5">
+        <v>106.22444152832031</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <f>B5</f>
+        <v>43831</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6">
+        <v>594.11370849609375</v>
+      </c>
+      <c r="F6">
+        <v>267.78131103515625</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <f>B6</f>
+        <v>43831</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="str">
+        <f>D6</f>
+        <v>DP 6554</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3">
+        <f>B7+1</f>
+        <v>43832</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8">
+        <v>594.6390380859375</v>
+      </c>
+      <c r="F8">
+        <v>275.8397216796875</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3">
+        <f>B8</f>
+        <v>43832</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9">
+        <v>315.2371826171875</v>
+      </c>
+      <c r="F9">
+        <v>131.29144287109375</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3">
+        <f t="shared" ref="B10:B13" si="0">B9</f>
+        <v>43832</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10">
+        <v>71.740432739257813</v>
+      </c>
+      <c r="F10">
+        <v>37.912372589111328</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3">
+        <f t="shared" si="0"/>
+        <v>43832</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11">
+        <v>266.33795166015625</v>
+      </c>
+      <c r="F11">
+        <v>162.24456787109375</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3">
+        <f t="shared" si="0"/>
+        <v>43832</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12">
+        <v>597.85174560546875</v>
+      </c>
+      <c r="F12">
+        <v>272.43023681640625</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3">
+        <f t="shared" si="0"/>
+        <v>43832</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="str">
+        <f>D12</f>
+        <v>DP 6554</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/excel/db_espesamiento_prueba.xlsx
+++ b/excel/db_espesamiento_prueba.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="7" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="5" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="fecha" sheetId="1" r:id="rId1"/>
@@ -23,12 +23,12 @@
     <sheet name="centrifuga" sheetId="9" r:id="rId9"/>
     <sheet name="valor_centrifuga" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="92">
   <si>
     <t>dia</t>
   </si>
@@ -212,13 +212,107 @@
   <si>
     <t>va</t>
   </si>
+  <si>
+    <t>1-1-2020</t>
+  </si>
+  <si>
+    <t>2-1-2020</t>
+  </si>
+  <si>
+    <t>3-1-2020</t>
+  </si>
+  <si>
+    <t>4-1-2020</t>
+  </si>
+  <si>
+    <t>5-1-2020</t>
+  </si>
+  <si>
+    <t>6-1-2020</t>
+  </si>
+  <si>
+    <t>7-1-2020</t>
+  </si>
+  <si>
+    <t>8-1-2020</t>
+  </si>
+  <si>
+    <t>9-1-2020</t>
+  </si>
+  <si>
+    <t>10-1-2020</t>
+  </si>
+  <si>
+    <t>11-1-2020</t>
+  </si>
+  <si>
+    <t>12-1-2020</t>
+  </si>
+  <si>
+    <t>13-1-2020</t>
+  </si>
+  <si>
+    <t>14-1-2020</t>
+  </si>
+  <si>
+    <t>15-1-2020</t>
+  </si>
+  <si>
+    <t>16-1-2020</t>
+  </si>
+  <si>
+    <t>17-1-2020</t>
+  </si>
+  <si>
+    <t>18-1-2020</t>
+  </si>
+  <si>
+    <t>19-1-2020</t>
+  </si>
+  <si>
+    <t>20-1-2020</t>
+  </si>
+  <si>
+    <t>21-1-2020</t>
+  </si>
+  <si>
+    <t>22-1-2020</t>
+  </si>
+  <si>
+    <t>23-1-2020</t>
+  </si>
+  <si>
+    <t>24-1-2020</t>
+  </si>
+  <si>
+    <t>25-1-2020</t>
+  </si>
+  <si>
+    <t>26-1-2020</t>
+  </si>
+  <si>
+    <t>27-1-2020</t>
+  </si>
+  <si>
+    <t>28-1-2020</t>
+  </si>
+  <si>
+    <t>29-1-2020</t>
+  </si>
+  <si>
+    <t>30-1-2020</t>
+  </si>
+  <si>
+    <t>31-1-2020</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
+    <numFmt numFmtId="166" formatCode="dd/mm/yy;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -249,13 +343,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -539,7 +635,7 @@
   <dimension ref="A1:AMK529"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3203,8 +3299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I250"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="L109" sqref="L109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10443,7 +10539,7 @@
   <dimension ref="A1:AMK9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection sqref="A1:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10508,7 +10604,7 @@
   <dimension ref="A1:AMK17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection sqref="A1:A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10613,7 +10709,7 @@
   <dimension ref="A1:AMK5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10673,7 +10769,7 @@
   <dimension ref="A1:AMJ11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10683,92 +10779,92 @@
     <col min="3" max="1024" width="10.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
+    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>28</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -10779,10 +10875,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMJ43"/>
+  <dimension ref="A1:AMJ41"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10857,50 +10953,50 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -10908,23 +11004,23 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -10932,7 +11028,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -10940,12 +11036,12 @@
         <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B19" t="s">
         <v>4</v>
@@ -10953,7 +11049,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B20" t="s">
         <v>5</v>
@@ -10961,7 +11057,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B21" t="s">
         <v>4</v>
@@ -10969,10 +11065,10 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -10980,23 +11076,23 @@
         <v>16</v>
       </c>
       <c r="B23" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -11004,23 +11100,23 @@
         <v>17</v>
       </c>
       <c r="B26" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B27" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -11028,7 +11124,7 @@
         <v>18</v>
       </c>
       <c r="B29" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -11036,39 +11132,39 @@
         <v>18</v>
       </c>
       <c r="B30" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B31" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>19</v>
+      <c r="A33" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="B33" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>19</v>
+      <c r="A34" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="B34" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -11076,7 +11172,7 @@
         <v>20</v>
       </c>
       <c r="B35" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -11084,7 +11180,7 @@
         <v>20</v>
       </c>
       <c r="B36" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -11092,7 +11188,7 @@
         <v>20</v>
       </c>
       <c r="B37" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -11100,7 +11196,7 @@
         <v>20</v>
       </c>
       <c r="B38" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -11108,7 +11204,7 @@
         <v>20</v>
       </c>
       <c r="B39" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -11116,27 +11212,11 @@
         <v>20</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B41" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B42" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C43">
+      <c r="C41">
         <v>0</v>
       </c>
     </row>
@@ -11151,7 +11231,7 @@
   <dimension ref="A1:AMK247"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11161,7 +11241,7 @@
     <col min="8" max="1025" width="10.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>30</v>
       </c>
@@ -11181,12 +11261,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
-        <v>43831</v>
+      <c r="B2" s="5" t="s">
+        <v>61</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -11200,13 +11280,20 @@
       <c r="F2">
         <v>293.46624755859398</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H2" s="3">
+        <v>1</v>
+      </c>
+      <c r="J2" s="3" t="str">
+        <f>CONCATENATE(,H2,"-1","-2020")</f>
+        <v>1-1-2020</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
-        <v>43831</v>
+      <c r="B3" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
@@ -11220,13 +11307,20 @@
       <c r="F3">
         <v>134.55604553222699</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H3" s="3">
+        <v>1</v>
+      </c>
+      <c r="J3" s="3" t="str">
+        <f t="shared" ref="J3:J66" si="0">CONCATENATE(,H3,"-1","-2020")</f>
+        <v>1-1-2020</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
-        <v>43831</v>
+      <c r="B4" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
@@ -11240,13 +11334,20 @@
       <c r="F4">
         <v>72.780982971191406</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H4" s="3">
+        <v>1</v>
+      </c>
+      <c r="J4" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>1-1-2020</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
-        <v>43831</v>
+      <c r="B5" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -11260,13 +11361,20 @@
       <c r="F5">
         <v>112.6762771606445</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H5" s="3">
+        <v>1</v>
+      </c>
+      <c r="J5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>1-1-2020</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
-        <v>43831</v>
+      <c r="B6" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
@@ -11280,13 +11388,20 @@
       <c r="F6">
         <v>267.78131103515602</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H6" s="3">
+        <v>1</v>
+      </c>
+      <c r="J6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>1-1-2020</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
-        <v>43831</v>
+      <c r="B7" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
@@ -11300,13 +11415,20 @@
       <c r="F7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H7" s="3">
+        <v>1</v>
+      </c>
+      <c r="J7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>1-1-2020</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
-        <v>43832</v>
+      <c r="B8" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="C8" t="s">
         <v>2</v>
@@ -11320,13 +11442,21 @@
       <c r="F8">
         <v>275.83972167968699</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H8" s="3">
+        <f>H7+1</f>
+        <v>2</v>
+      </c>
+      <c r="J8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>2-1-2020</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
-        <v>43832</v>
+      <c r="B9" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="C9" t="s">
         <v>3</v>
@@ -11340,13 +11470,21 @@
       <c r="F9">
         <v>131.29144287109401</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H9" s="3">
+        <f>H8</f>
+        <v>2</v>
+      </c>
+      <c r="J9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>2-1-2020</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="1">
-        <v>43832</v>
+      <c r="B10" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -11360,13 +11498,21 @@
       <c r="F10">
         <v>20.866104125976559</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H10" s="3">
+        <f>H9</f>
+        <v>2</v>
+      </c>
+      <c r="J10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>2-1-2020</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="1">
-        <v>43832</v>
+      <c r="B11" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -11380,13 +11526,21 @@
       <c r="F11">
         <v>125.0355606079102</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H11" s="3">
+        <f>H10</f>
+        <v>2</v>
+      </c>
+      <c r="J11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>2-1-2020</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="1">
-        <v>43832</v>
+      <c r="B12" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="C12" t="s">
         <v>6</v>
@@ -11400,13 +11554,21 @@
       <c r="F12">
         <v>272.43023681640602</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H12" s="3">
+        <f>H11</f>
+        <v>2</v>
+      </c>
+      <c r="J12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>2-1-2020</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="1">
-        <v>43832</v>
+      <c r="B13" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="C13" t="s">
         <v>7</v>
@@ -11420,13 +11582,21 @@
       <c r="F13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H13" s="3">
+        <f>H12</f>
+        <v>2</v>
+      </c>
+      <c r="J13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>2-1-2020</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="1">
-        <v>43833</v>
+      <c r="B14" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="C14" t="s">
         <v>2</v>
@@ -11440,13 +11610,21 @@
       <c r="F14">
         <v>265.4249267578125</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H14" s="3">
+        <f>H13+1</f>
+        <v>3</v>
+      </c>
+      <c r="J14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>3-1-2020</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="1">
-        <v>43833</v>
+      <c r="B15" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="C15" t="s">
         <v>3</v>
@@ -11460,13 +11638,21 @@
       <c r="F15">
         <v>189.62748718261719</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H15" s="3">
+        <f>H14</f>
+        <v>3</v>
+      </c>
+      <c r="J15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>3-1-2020</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="1">
-        <v>43833</v>
+      <c r="B16" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
@@ -11480,13 +11666,21 @@
       <c r="F16">
         <v>39.178928375244141</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H16" s="3">
+        <f>H15</f>
+        <v>3</v>
+      </c>
+      <c r="J16" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>3-1-2020</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="1">
-        <v>43833</v>
+      <c r="B17" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -11500,13 +11694,21 @@
       <c r="F17">
         <v>160.92536926269531</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H17" s="3">
+        <f>H16</f>
+        <v>3</v>
+      </c>
+      <c r="J17" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>3-1-2020</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="1">
-        <v>43833</v>
+      <c r="B18" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="C18" t="s">
         <v>6</v>
@@ -11520,13 +11722,21 @@
       <c r="F18">
         <v>314.62771606445312</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H18" s="3">
+        <f>H17</f>
+        <v>3</v>
+      </c>
+      <c r="J18" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>3-1-2020</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="1">
-        <v>43833</v>
+      <c r="B19" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="C19" t="s">
         <v>7</v>
@@ -11540,13 +11750,21 @@
       <c r="F19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H19" s="3">
+        <f>H18</f>
+        <v>3</v>
+      </c>
+      <c r="J19" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>3-1-2020</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="1">
-        <v>43834</v>
+      <c r="B20" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="C20" t="s">
         <v>2</v>
@@ -11560,13 +11778,21 @@
       <c r="F20">
         <v>307.63580322265619</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H20" s="3">
+        <f t="shared" ref="H20:H51" si="1">H19+1</f>
+        <v>4</v>
+      </c>
+      <c r="J20" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>4-1-2020</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="1">
-        <v>43834</v>
+      <c r="B21" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="C21" t="s">
         <v>3</v>
@@ -11580,13 +11806,21 @@
       <c r="F21">
         <v>107.1303329467773</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H21" s="3">
+        <f t="shared" ref="H21:H52" si="2">H20</f>
+        <v>4</v>
+      </c>
+      <c r="J21" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>4-1-2020</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="1">
-        <v>43834</v>
+      <c r="B22" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="C22" t="s">
         <v>4</v>
@@ -11600,13 +11834,21 @@
       <c r="F22">
         <v>102.0419235229492</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H22" s="3">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="J22" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>4-1-2020</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="1">
-        <v>43834</v>
+      <c r="B23" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -11620,13 +11862,21 @@
       <c r="F23">
         <v>106.2244415283203</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H23" s="3">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="J23" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>4-1-2020</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="1">
-        <v>43834</v>
+      <c r="B24" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="C24" t="s">
         <v>6</v>
@@ -11640,13 +11890,21 @@
       <c r="F24">
         <v>325.29940795898437</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H24" s="3">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="J24" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>4-1-2020</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="1">
-        <v>43834</v>
+      <c r="B25" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="C25" t="s">
         <v>7</v>
@@ -11660,13 +11918,21 @@
       <c r="F25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H25" s="3">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="J25" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>4-1-2020</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="1">
-        <v>43835</v>
+      <c r="B26" s="4" t="s">
+        <v>65</v>
       </c>
       <c r="C26" t="s">
         <v>2</v>
@@ -11680,13 +11946,21 @@
       <c r="F26">
         <v>197.64646911621091</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H26" s="3">
+        <f t="shared" ref="H26:H57" si="3">H25+1</f>
+        <v>5</v>
+      </c>
+      <c r="J26" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>5-1-2020</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="1">
-        <v>43835</v>
+      <c r="B27" s="4" t="s">
+        <v>65</v>
       </c>
       <c r="C27" t="s">
         <v>3</v>
@@ -11700,13 +11974,21 @@
       <c r="F27">
         <v>90.621604919433594</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H27" s="3">
+        <f t="shared" ref="H27:H58" si="4">H26</f>
+        <v>5</v>
+      </c>
+      <c r="J27" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>5-1-2020</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="1">
-        <v>43835</v>
+      <c r="B28" s="4" t="s">
+        <v>65</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
@@ -11720,13 +12002,21 @@
       <c r="F28">
         <v>37.912372589111328</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H28" s="3">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="J28" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>5-1-2020</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="1">
-        <v>43835</v>
+      <c r="B29" s="4" t="s">
+        <v>65</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
@@ -11740,13 +12030,21 @@
       <c r="F29">
         <v>162.24456787109381</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H29" s="3">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="J29" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>5-1-2020</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="1">
-        <v>43835</v>
+      <c r="B30" s="4" t="s">
+        <v>65</v>
       </c>
       <c r="C30" t="s">
         <v>6</v>
@@ -11760,13 +12058,21 @@
       <c r="F30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H30" s="3">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="J30" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>5-1-2020</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="1">
-        <v>43835</v>
+      <c r="B31" s="4" t="s">
+        <v>65</v>
       </c>
       <c r="C31" t="s">
         <v>7</v>
@@ -11780,13 +12086,21 @@
       <c r="F31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H31" s="3">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="J31" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>5-1-2020</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="1">
-        <v>43836</v>
+      <c r="B32" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="C32" t="s">
         <v>2</v>
@@ -11800,13 +12114,21 @@
       <c r="F32">
         <v>211.87037658691409</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H32" s="3">
+        <f t="shared" ref="H32:H63" si="5">H31+1</f>
+        <v>6</v>
+      </c>
+      <c r="J32" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>6-1-2020</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" s="1">
-        <v>43836</v>
+      <c r="B33" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="C33" t="s">
         <v>3</v>
@@ -11820,13 +12142,21 @@
       <c r="F33">
         <v>85.591842651367188</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H33" s="3">
+        <f t="shared" ref="H33:H64" si="6">H32</f>
+        <v>6</v>
+      </c>
+      <c r="J33" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>6-1-2020</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" s="1">
-        <v>43836</v>
+      <c r="B34" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
@@ -11840,13 +12170,21 @@
       <c r="F34">
         <v>68.152351379394531</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H34" s="3">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="J34" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>6-1-2020</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" s="1">
-        <v>43836</v>
+      <c r="B35" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
@@ -11860,13 +12198,21 @@
       <c r="F35">
         <v>177.88453674316409</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H35" s="3">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="J35" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>6-1-2020</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" s="1">
-        <v>43836</v>
+      <c r="B36" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="C36" t="s">
         <v>6</v>
@@ -11880,13 +12226,21 @@
       <c r="F36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H36" s="3">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="J36" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>6-1-2020</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" s="1">
-        <v>43836</v>
+      <c r="B37" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="C37" t="s">
         <v>7</v>
@@ -11900,13 +12254,21 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H37" s="3">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="J37" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>6-1-2020</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" s="1">
-        <v>43837</v>
+      <c r="B38" s="4" t="s">
+        <v>67</v>
       </c>
       <c r="C38" t="s">
         <v>2</v>
@@ -11920,13 +12282,21 @@
       <c r="F38">
         <v>182.5723876953125</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H38" s="3">
+        <f t="shared" ref="H38:H69" si="7">H37+1</f>
+        <v>7</v>
+      </c>
+      <c r="J38" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>7-1-2020</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" s="1">
-        <v>43837</v>
+      <c r="B39" s="4" t="s">
+        <v>67</v>
       </c>
       <c r="C39" t="s">
         <v>3</v>
@@ -11940,13 +12310,21 @@
       <c r="F39">
         <v>113.1825408935547</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H39" s="3">
+        <f t="shared" ref="H39:H70" si="8">H38</f>
+        <v>7</v>
+      </c>
+      <c r="J39" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>7-1-2020</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" s="1">
-        <v>43837</v>
+      <c r="B40" s="4" t="s">
+        <v>67</v>
       </c>
       <c r="C40" t="s">
         <v>4</v>
@@ -11960,13 +12338,21 @@
       <c r="F40">
         <v>66.438102722167969</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H40" s="3">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="J40" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>7-1-2020</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" s="1">
-        <v>43837</v>
+      <c r="B41" s="4" t="s">
+        <v>67</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -11980,13 +12366,21 @@
       <c r="F41">
         <v>162.2433166503906</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H41" s="3">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="J41" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>7-1-2020</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" s="1">
-        <v>43837</v>
+      <c r="B42" s="4" t="s">
+        <v>67</v>
       </c>
       <c r="C42" t="s">
         <v>6</v>
@@ -12000,13 +12394,21 @@
       <c r="F42">
         <v>310.70184326171881</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H42" s="3">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="J42" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>7-1-2020</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" s="1">
-        <v>43837</v>
+      <c r="B43" s="4" t="s">
+        <v>67</v>
       </c>
       <c r="C43" t="s">
         <v>7</v>
@@ -12020,13 +12422,21 @@
       <c r="F43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H43" s="3">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="J43" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>7-1-2020</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" s="1">
-        <v>43838</v>
+      <c r="B44" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="C44" t="s">
         <v>2</v>
@@ -12040,13 +12450,21 @@
       <c r="F44">
         <v>103.4539489746094</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H44" s="3">
+        <f t="shared" ref="H44:H75" si="9">H43+1</f>
+        <v>8</v>
+      </c>
+      <c r="J44" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>8-1-2020</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" s="1">
-        <v>43838</v>
+      <c r="B45" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="C45" t="s">
         <v>3</v>
@@ -12060,13 +12478,21 @@
       <c r="F45">
         <v>174.18476867675781</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H45" s="3">
+        <f t="shared" ref="H45:H76" si="10">H44</f>
+        <v>8</v>
+      </c>
+      <c r="J45" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>8-1-2020</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46" s="1">
-        <v>43838</v>
+      <c r="B46" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="C46" t="s">
         <v>4</v>
@@ -12080,13 +12506,21 @@
       <c r="F46">
         <v>37.517406463623047</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H46" s="3">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="J46" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>8-1-2020</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" s="1">
-        <v>43838</v>
+      <c r="B47" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
@@ -12100,13 +12534,21 @@
       <c r="F47">
         <v>255.33447265625</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H47" s="3">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="J47" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>8-1-2020</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48" s="1">
-        <v>43838</v>
+      <c r="B48" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="C48" t="s">
         <v>6</v>
@@ -12120,13 +12562,21 @@
       <c r="F48">
         <v>310.70855712890619</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H48" s="3">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="J48" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>8-1-2020</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" s="1">
-        <v>43838</v>
+      <c r="B49" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="C49" t="s">
         <v>7</v>
@@ -12140,13 +12590,21 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H49" s="3">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="J49" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>8-1-2020</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" s="1">
-        <v>43839</v>
+      <c r="B50" s="4" t="s">
+        <v>69</v>
       </c>
       <c r="C50" t="s">
         <v>2</v>
@@ -12160,13 +12618,21 @@
       <c r="F50">
         <v>94.82989501953125</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H50" s="3">
+        <f t="shared" ref="H50:H81" si="11">H49+1</f>
+        <v>9</v>
+      </c>
+      <c r="J50" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>9-1-2020</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51" s="1">
-        <v>43839</v>
+      <c r="B51" s="4" t="s">
+        <v>69</v>
       </c>
       <c r="C51" t="s">
         <v>3</v>
@@ -12180,13 +12646,21 @@
       <c r="F51">
         <v>112.8900604248047</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H51" s="3">
+        <f t="shared" ref="H51:H82" si="12">H50</f>
+        <v>9</v>
+      </c>
+      <c r="J51" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>9-1-2020</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
-      <c r="B52" s="1">
-        <v>43839</v>
+      <c r="B52" s="4" t="s">
+        <v>69</v>
       </c>
       <c r="C52" t="s">
         <v>4</v>
@@ -12200,13 +12674,21 @@
       <c r="F52">
         <v>22.97785758972168</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H52" s="3">
+        <f t="shared" si="12"/>
+        <v>9</v>
+      </c>
+      <c r="J52" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>9-1-2020</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
-      <c r="B53" s="1">
-        <v>43839</v>
+      <c r="B53" s="4" t="s">
+        <v>69</v>
       </c>
       <c r="C53" t="s">
         <v>5</v>
@@ -12220,13 +12702,21 @@
       <c r="F53">
         <v>217.16986083984381</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H53" s="3">
+        <f t="shared" si="12"/>
+        <v>9</v>
+      </c>
+      <c r="J53" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>9-1-2020</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54" s="1">
-        <v>43839</v>
+      <c r="B54" s="4" t="s">
+        <v>69</v>
       </c>
       <c r="C54" t="s">
         <v>6</v>
@@ -12240,13 +12730,21 @@
       <c r="F54">
         <v>274.09524536132812</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H54" s="3">
+        <f t="shared" si="12"/>
+        <v>9</v>
+      </c>
+      <c r="J54" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>9-1-2020</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
-      <c r="B55" s="1">
-        <v>43839</v>
+      <c r="B55" s="4" t="s">
+        <v>69</v>
       </c>
       <c r="C55" t="s">
         <v>7</v>
@@ -12260,13 +12758,21 @@
       <c r="F55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H55" s="3">
+        <f t="shared" si="12"/>
+        <v>9</v>
+      </c>
+      <c r="J55" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>9-1-2020</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56" s="1">
-        <v>43840</v>
+      <c r="B56" s="4" t="s">
+        <v>70</v>
       </c>
       <c r="C56" t="s">
         <v>2</v>
@@ -12280,13 +12786,21 @@
       <c r="F56">
         <v>187.2884826660156</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H56" s="3">
+        <f t="shared" ref="H56:H87" si="13">H55+1</f>
+        <v>10</v>
+      </c>
+      <c r="J56" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>10-1-2020</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57" s="1">
-        <v>43840</v>
+      <c r="B57" s="4" t="s">
+        <v>70</v>
       </c>
       <c r="C57" t="s">
         <v>3</v>
@@ -12300,13 +12814,21 @@
       <c r="F57">
         <v>234.75856018066409</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H57" s="3">
+        <f t="shared" ref="H57:H88" si="14">H56</f>
+        <v>10</v>
+      </c>
+      <c r="J57" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>10-1-2020</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58" s="1">
-        <v>43840</v>
+      <c r="B58" s="4" t="s">
+        <v>70</v>
       </c>
       <c r="C58" t="s">
         <v>4</v>
@@ -12320,13 +12842,21 @@
       <c r="F58">
         <v>10.55471897125244</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H58" s="3">
+        <f t="shared" si="14"/>
+        <v>10</v>
+      </c>
+      <c r="J58" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>10-1-2020</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
-      <c r="B59" s="1">
-        <v>43840</v>
+      <c r="B59" s="4" t="s">
+        <v>70</v>
       </c>
       <c r="C59" t="s">
         <v>5</v>
@@ -12340,13 +12870,21 @@
       <c r="F59">
         <v>226.45225524902341</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H59" s="3">
+        <f t="shared" si="14"/>
+        <v>10</v>
+      </c>
+      <c r="J59" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>10-1-2020</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
-      <c r="B60" s="1">
-        <v>43840</v>
+      <c r="B60" s="4" t="s">
+        <v>70</v>
       </c>
       <c r="C60" t="s">
         <v>6</v>
@@ -12360,13 +12898,21 @@
       <c r="F60">
         <v>335.61648559570312</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H60" s="3">
+        <f t="shared" si="14"/>
+        <v>10</v>
+      </c>
+      <c r="J60" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>10-1-2020</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
-      <c r="B61" s="1">
-        <v>43840</v>
+      <c r="B61" s="4" t="s">
+        <v>70</v>
       </c>
       <c r="C61" t="s">
         <v>7</v>
@@ -12380,13 +12926,21 @@
       <c r="F61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H61" s="3">
+        <f t="shared" si="14"/>
+        <v>10</v>
+      </c>
+      <c r="J61" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>10-1-2020</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
-      <c r="B62" s="1">
-        <v>43841</v>
+      <c r="B62" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="C62" t="s">
         <v>2</v>
@@ -12400,13 +12954,21 @@
       <c r="F62">
         <v>136.2724609375</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H62" s="3">
+        <f t="shared" ref="H62:H93" si="15">H61+1</f>
+        <v>11</v>
+      </c>
+      <c r="J62" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>11-1-2020</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
-      <c r="B63" s="1">
-        <v>43841</v>
+      <c r="B63" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="C63" t="s">
         <v>3</v>
@@ -12420,13 +12982,21 @@
       <c r="F63">
         <v>161.461669921875</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H63" s="3">
+        <f t="shared" ref="H63:H94" si="16">H62</f>
+        <v>11</v>
+      </c>
+      <c r="J63" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>11-1-2020</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
-      <c r="B64" s="1">
-        <v>43841</v>
+      <c r="B64" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="C64" t="s">
         <v>4</v>
@@ -12440,13 +13010,21 @@
       <c r="F64">
         <v>25.545461654663089</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H64" s="3">
+        <f t="shared" si="16"/>
+        <v>11</v>
+      </c>
+      <c r="J64" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>11-1-2020</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
-      <c r="B65" s="1">
-        <v>43841</v>
+      <c r="B65" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="C65" t="s">
         <v>5</v>
@@ -12460,13 +13038,21 @@
       <c r="F65">
         <v>275.8121337890625</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H65" s="3">
+        <f t="shared" si="16"/>
+        <v>11</v>
+      </c>
+      <c r="J65" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>11-1-2020</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
-      <c r="B66" s="1">
-        <v>43841</v>
+      <c r="B66" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="C66" t="s">
         <v>6</v>
@@ -12480,13 +13066,21 @@
       <c r="F66">
         <v>198.27473449707031</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H66" s="3">
+        <f t="shared" si="16"/>
+        <v>11</v>
+      </c>
+      <c r="J66" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>11-1-2020</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
-      <c r="B67" s="1">
-        <v>43841</v>
+      <c r="B67" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="C67" t="s">
         <v>7</v>
@@ -12500,13 +13094,21 @@
       <c r="F67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H67" s="3">
+        <f t="shared" si="16"/>
+        <v>11</v>
+      </c>
+      <c r="J67" s="3" t="str">
+        <f t="shared" ref="J67:J130" si="17">CONCATENATE(,H67,"-1","-2020")</f>
+        <v>11-1-2020</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
-      <c r="B68" s="1">
-        <v>43842</v>
+      <c r="B68" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="C68" t="s">
         <v>2</v>
@@ -12520,13 +13122,21 @@
       <c r="F68">
         <v>166.45777893066409</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H68" s="3">
+        <f t="shared" ref="H68:H99" si="18">H67+1</f>
+        <v>12</v>
+      </c>
+      <c r="J68" s="3" t="str">
+        <f t="shared" si="17"/>
+        <v>12-1-2020</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
-      <c r="B69" s="1">
-        <v>43842</v>
+      <c r="B69" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="C69" t="s">
         <v>3</v>
@@ -12540,13 +13150,21 @@
       <c r="F69">
         <v>140.7392578125</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H69" s="3">
+        <f t="shared" ref="H69:H100" si="19">H68</f>
+        <v>12</v>
+      </c>
+      <c r="J69" s="3" t="str">
+        <f t="shared" si="17"/>
+        <v>12-1-2020</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
-      <c r="B70" s="1">
-        <v>43842</v>
+      <c r="B70" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="C70" t="s">
         <v>4</v>
@@ -12560,13 +13178,21 @@
       <c r="F70">
         <v>7.1126708984375</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H70" s="3">
+        <f t="shared" si="19"/>
+        <v>12</v>
+      </c>
+      <c r="J70" s="3" t="str">
+        <f t="shared" si="17"/>
+        <v>12-1-2020</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
-      <c r="B71" s="1">
-        <v>43842</v>
+      <c r="B71" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="C71" t="s">
         <v>5</v>
@@ -12580,13 +13206,21 @@
       <c r="F71">
         <v>291.78662109375</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H71" s="3">
+        <f t="shared" si="19"/>
+        <v>12</v>
+      </c>
+      <c r="J71" s="3" t="str">
+        <f t="shared" si="17"/>
+        <v>12-1-2020</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
-      <c r="B72" s="1">
-        <v>43842</v>
+      <c r="B72" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="C72" t="s">
         <v>6</v>
@@ -12600,13 +13234,21 @@
       <c r="F72">
         <v>149.56085205078119</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H72" s="3">
+        <f t="shared" si="19"/>
+        <v>12</v>
+      </c>
+      <c r="J72" s="3" t="str">
+        <f t="shared" si="17"/>
+        <v>12-1-2020</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
-      <c r="B73" s="1">
-        <v>43842</v>
+      <c r="B73" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="C73" t="s">
         <v>7</v>
@@ -12620,13 +13262,21 @@
       <c r="F73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H73" s="3">
+        <f t="shared" si="19"/>
+        <v>12</v>
+      </c>
+      <c r="J73" s="3" t="str">
+        <f t="shared" si="17"/>
+        <v>12-1-2020</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
-      <c r="B74" s="1">
-        <v>43843</v>
+      <c r="B74" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="C74" t="s">
         <v>2</v>
@@ -12640,13 +13290,21 @@
       <c r="F74">
         <v>133.48545837402341</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H74" s="3">
+        <f t="shared" ref="H74:H105" si="20">H73+1</f>
+        <v>13</v>
+      </c>
+      <c r="J74" s="3" t="str">
+        <f t="shared" si="17"/>
+        <v>13-1-2020</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
-      <c r="B75" s="1">
-        <v>43843</v>
+      <c r="B75" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="C75" t="s">
         <v>3</v>
@@ -12660,13 +13318,21 @@
       <c r="F75">
         <v>157.862548828125</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H75" s="3">
+        <f t="shared" ref="H75:H106" si="21">H74</f>
+        <v>13</v>
+      </c>
+      <c r="J75" s="3" t="str">
+        <f t="shared" si="17"/>
+        <v>13-1-2020</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
-      <c r="B76" s="1">
-        <v>43843</v>
+      <c r="B76" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="C76" t="s">
         <v>4</v>
@@ -12680,13 +13346,21 @@
       <c r="F76">
         <v>16.708442687988281</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H76" s="3">
+        <f t="shared" si="21"/>
+        <v>13</v>
+      </c>
+      <c r="J76" s="3" t="str">
+        <f t="shared" si="17"/>
+        <v>13-1-2020</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
-      <c r="B77" s="1">
-        <v>43843</v>
+      <c r="B77" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="C77" t="s">
         <v>5</v>
@@ -12700,13 +13374,21 @@
       <c r="F77">
         <v>235.2835998535156</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H77" s="3">
+        <f t="shared" si="21"/>
+        <v>13</v>
+      </c>
+      <c r="J77" s="3" t="str">
+        <f t="shared" si="17"/>
+        <v>13-1-2020</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
-      <c r="B78" s="1">
-        <v>43843</v>
+      <c r="B78" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="C78" t="s">
         <v>6</v>
@@ -12720,13 +13402,21 @@
       <c r="F78">
         <v>127.6915817260742</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H78" s="3">
+        <f t="shared" si="21"/>
+        <v>13</v>
+      </c>
+      <c r="J78" s="3" t="str">
+        <f t="shared" si="17"/>
+        <v>13-1-2020</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
-      <c r="B79" s="1">
-        <v>43843</v>
+      <c r="B79" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="C79" t="s">
         <v>7</v>
@@ -12740,13 +13430,21 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H79" s="3">
+        <f t="shared" si="21"/>
+        <v>13</v>
+      </c>
+      <c r="J79" s="3" t="str">
+        <f t="shared" si="17"/>
+        <v>13-1-2020</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
-      <c r="B80" s="1">
-        <v>43844</v>
+      <c r="B80" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="C80" t="s">
         <v>2</v>
@@ -12760,13 +13458,21 @@
       <c r="F80">
         <v>133.56689453125</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H80" s="3">
+        <f t="shared" ref="H80:H111" si="22">H79+1</f>
+        <v>14</v>
+      </c>
+      <c r="J80" s="3" t="str">
+        <f t="shared" si="17"/>
+        <v>14-1-2020</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
-      <c r="B81" s="1">
-        <v>43844</v>
+      <c r="B81" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="C81" t="s">
         <v>3</v>
@@ -12780,13 +13486,21 @@
       <c r="F81">
         <v>150.92420959472659</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H81" s="3">
+        <f t="shared" ref="H81:H112" si="23">H80</f>
+        <v>14</v>
+      </c>
+      <c r="J81" s="3" t="str">
+        <f t="shared" si="17"/>
+        <v>14-1-2020</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
-      <c r="B82" s="1">
-        <v>43844</v>
+      <c r="B82" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="C82" t="s">
         <v>4</v>
@@ -12800,13 +13514,21 @@
       <c r="F82">
         <v>34.881622314453118</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H82" s="3">
+        <f t="shared" si="23"/>
+        <v>14</v>
+      </c>
+      <c r="J82" s="3" t="str">
+        <f t="shared" si="17"/>
+        <v>14-1-2020</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
-      <c r="B83" s="1">
-        <v>43844</v>
+      <c r="B83" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="C83" t="s">
         <v>5</v>
@@ -12820,13 +13542,21 @@
       <c r="F83">
         <v>209.90159606933591</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H83" s="3">
+        <f t="shared" si="23"/>
+        <v>14</v>
+      </c>
+      <c r="J83" s="3" t="str">
+        <f t="shared" si="17"/>
+        <v>14-1-2020</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
-      <c r="B84" s="1">
-        <v>43844</v>
+      <c r="B84" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="C84" t="s">
         <v>6</v>
@@ -12840,13 +13570,21 @@
       <c r="F84">
         <v>129.97233581542969</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H84" s="3">
+        <f t="shared" si="23"/>
+        <v>14</v>
+      </c>
+      <c r="J84" s="3" t="str">
+        <f t="shared" si="17"/>
+        <v>14-1-2020</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
-      <c r="B85" s="1">
-        <v>43844</v>
+      <c r="B85" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="C85" t="s">
         <v>7</v>
@@ -12860,13 +13598,21 @@
       <c r="F85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H85" s="3">
+        <f t="shared" si="23"/>
+        <v>14</v>
+      </c>
+      <c r="J85" s="3" t="str">
+        <f t="shared" si="17"/>
+        <v>14-1-2020</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
-      <c r="B86" s="1">
-        <v>43845</v>
+      <c r="B86" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="C86" t="s">
         <v>2</v>
@@ -12880,13 +13626,21 @@
       <c r="F86">
         <v>143.47795104980469</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H86" s="3">
+        <f t="shared" ref="H86:H117" si="24">H85+1</f>
+        <v>15</v>
+      </c>
+      <c r="J86" s="3" t="str">
+        <f t="shared" si="17"/>
+        <v>15-1-2020</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
-      <c r="B87" s="1">
-        <v>43845</v>
+      <c r="B87" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="C87" t="s">
         <v>3</v>
@@ -12900,13 +13654,21 @@
       <c r="F87">
         <v>165.46440124511719</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H87" s="3">
+        <f t="shared" ref="H87:H118" si="25">H86</f>
+        <v>15</v>
+      </c>
+      <c r="J87" s="3" t="str">
+        <f t="shared" si="17"/>
+        <v>15-1-2020</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
-      <c r="B88" s="1">
-        <v>43845</v>
+      <c r="B88" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="C88" t="s">
         <v>4</v>
@@ -12920,13 +13682,21 @@
       <c r="F88">
         <v>66.698829650878906</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H88" s="3">
+        <f t="shared" si="25"/>
+        <v>15</v>
+      </c>
+      <c r="J88" s="3" t="str">
+        <f t="shared" si="17"/>
+        <v>15-1-2020</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
-      <c r="B89" s="1">
-        <v>43845</v>
+      <c r="B89" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="C89" t="s">
         <v>5</v>
@@ -12940,13 +13710,21 @@
       <c r="F89">
         <v>179.4585266113281</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H89" s="3">
+        <f t="shared" si="25"/>
+        <v>15</v>
+      </c>
+      <c r="J89" s="3" t="str">
+        <f t="shared" si="17"/>
+        <v>15-1-2020</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
-      <c r="B90" s="1">
-        <v>43845</v>
+      <c r="B90" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="C90" t="s">
         <v>6</v>
@@ -12960,13 +13738,21 @@
       <c r="F90">
         <v>167.57470703125</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H90" s="3">
+        <f t="shared" si="25"/>
+        <v>15</v>
+      </c>
+      <c r="J90" s="3" t="str">
+        <f t="shared" si="17"/>
+        <v>15-1-2020</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
-      <c r="B91" s="1">
-        <v>43845</v>
+      <c r="B91" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="C91" t="s">
         <v>7</v>
@@ -12980,13 +13766,21 @@
       <c r="F91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H91" s="3">
+        <f t="shared" si="25"/>
+        <v>15</v>
+      </c>
+      <c r="J91" s="3" t="str">
+        <f t="shared" si="17"/>
+        <v>15-1-2020</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
-      <c r="B92" s="1">
-        <v>43846</v>
+      <c r="B92" s="4" t="s">
+        <v>76</v>
       </c>
       <c r="C92" t="s">
         <v>2</v>
@@ -13000,13 +13794,21 @@
       <c r="F92">
         <v>105.4097366333008</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H92" s="3">
+        <f t="shared" ref="H92:H123" si="26">H91+1</f>
+        <v>16</v>
+      </c>
+      <c r="J92" s="3" t="str">
+        <f t="shared" si="17"/>
+        <v>16-1-2020</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
-      <c r="B93" s="1">
-        <v>43846</v>
+      <c r="B93" s="4" t="s">
+        <v>76</v>
       </c>
       <c r="C93" t="s">
         <v>3</v>
@@ -13020,13 +13822,21 @@
       <c r="F93">
         <v>128.20103454589841</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H93" s="3">
+        <f t="shared" ref="H93:H124" si="27">H92</f>
+        <v>16</v>
+      </c>
+      <c r="J93" s="3" t="str">
+        <f t="shared" si="17"/>
+        <v>16-1-2020</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
-      <c r="B94" s="1">
-        <v>43846</v>
+      <c r="B94" s="4" t="s">
+        <v>76</v>
       </c>
       <c r="C94" t="s">
         <v>4</v>
@@ -13040,13 +13850,21 @@
       <c r="F94">
         <v>53.026348114013672</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H94" s="3">
+        <f t="shared" si="27"/>
+        <v>16</v>
+      </c>
+      <c r="J94" s="3" t="str">
+        <f t="shared" si="17"/>
+        <v>16-1-2020</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
-      <c r="B95" s="1">
-        <v>43846</v>
+      <c r="B95" s="4" t="s">
+        <v>76</v>
       </c>
       <c r="C95" t="s">
         <v>5</v>
@@ -13060,13 +13878,21 @@
       <c r="F95">
         <v>92.709259033203125</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H95" s="3">
+        <f t="shared" si="27"/>
+        <v>16</v>
+      </c>
+      <c r="J95" s="3" t="str">
+        <f t="shared" si="17"/>
+        <v>16-1-2020</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
-      <c r="B96" s="1">
-        <v>43846</v>
+      <c r="B96" s="4" t="s">
+        <v>76</v>
       </c>
       <c r="C96" t="s">
         <v>6</v>
@@ -13080,13 +13906,21 @@
       <c r="F96">
         <v>189.32965087890619</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H96" s="3">
+        <f t="shared" si="27"/>
+        <v>16</v>
+      </c>
+      <c r="J96" s="3" t="str">
+        <f t="shared" si="17"/>
+        <v>16-1-2020</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
-      <c r="B97" s="1">
-        <v>43846</v>
+      <c r="B97" s="4" t="s">
+        <v>76</v>
       </c>
       <c r="C97" t="s">
         <v>7</v>
@@ -13100,13 +13934,21 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H97" s="3">
+        <f t="shared" si="27"/>
+        <v>16</v>
+      </c>
+      <c r="J97" s="3" t="str">
+        <f t="shared" si="17"/>
+        <v>16-1-2020</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
-      <c r="B98" s="1">
-        <v>43847</v>
+      <c r="B98" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="C98" t="s">
         <v>2</v>
@@ -13120,13 +13962,21 @@
       <c r="F98">
         <v>183.80879211425781</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H98" s="3">
+        <f t="shared" ref="H98:H129" si="28">H97+1</f>
+        <v>17</v>
+      </c>
+      <c r="J98" s="3" t="str">
+        <f t="shared" si="17"/>
+        <v>17-1-2020</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
-      <c r="B99" s="1">
-        <v>43847</v>
+      <c r="B99" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="C99" t="s">
         <v>3</v>
@@ -13140,13 +13990,21 @@
       <c r="F99">
         <v>139.33958435058591</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H99" s="3">
+        <f t="shared" ref="H99:H130" si="29">H98</f>
+        <v>17</v>
+      </c>
+      <c r="J99" s="3" t="str">
+        <f t="shared" si="17"/>
+        <v>17-1-2020</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
-      <c r="B100" s="1">
-        <v>43847</v>
+      <c r="B100" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="C100" t="s">
         <v>4</v>
@@ -13160,13 +14018,21 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H100" s="3">
+        <f t="shared" si="29"/>
+        <v>17</v>
+      </c>
+      <c r="J100" s="3" t="str">
+        <f t="shared" si="17"/>
+        <v>17-1-2020</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
-      <c r="B101" s="1">
-        <v>43847</v>
+      <c r="B101" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="C101" t="s">
         <v>5</v>
@@ -13180,13 +14046,21 @@
       <c r="F101">
         <v>130.60374450683591</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H101" s="3">
+        <f t="shared" si="29"/>
+        <v>17</v>
+      </c>
+      <c r="J101" s="3" t="str">
+        <f t="shared" si="17"/>
+        <v>17-1-2020</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
-      <c r="B102" s="1">
-        <v>43847</v>
+      <c r="B102" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="C102" t="s">
         <v>6</v>
@@ -13200,13 +14074,21 @@
       <c r="F102">
         <v>185.93693542480469</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H102" s="3">
+        <f t="shared" si="29"/>
+        <v>17</v>
+      </c>
+      <c r="J102" s="3" t="str">
+        <f t="shared" si="17"/>
+        <v>17-1-2020</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
-      <c r="B103" s="1">
-        <v>43847</v>
+      <c r="B103" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="C103" t="s">
         <v>7</v>
@@ -13214,13 +14096,21 @@
       <c r="D103" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H103" s="3">
+        <f t="shared" si="29"/>
+        <v>17</v>
+      </c>
+      <c r="J103" s="3" t="str">
+        <f t="shared" si="17"/>
+        <v>17-1-2020</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
-      <c r="B104" s="1">
-        <v>43848</v>
+      <c r="B104" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="C104" t="s">
         <v>2</v>
@@ -13234,13 +14124,21 @@
       <c r="F104">
         <v>169.01910400390619</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H104" s="3">
+        <f t="shared" ref="H104:H135" si="30">H103+1</f>
+        <v>18</v>
+      </c>
+      <c r="J104" s="3" t="str">
+        <f t="shared" si="17"/>
+        <v>18-1-2020</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
-      <c r="B105" s="1">
-        <v>43848</v>
+      <c r="B105" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="C105" t="s">
         <v>3</v>
@@ -13254,13 +14152,21 @@
       <c r="F105">
         <v>185.52033996582031</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H105" s="3">
+        <f t="shared" ref="H105:H136" si="31">H104</f>
+        <v>18</v>
+      </c>
+      <c r="J105" s="3" t="str">
+        <f t="shared" si="17"/>
+        <v>18-1-2020</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
-      <c r="B106" s="1">
-        <v>43848</v>
+      <c r="B106" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="C106" t="s">
         <v>4</v>
@@ -13274,13 +14180,21 @@
       <c r="F106">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H106" s="3">
+        <f t="shared" si="31"/>
+        <v>18</v>
+      </c>
+      <c r="J106" s="3" t="str">
+        <f t="shared" si="17"/>
+        <v>18-1-2020</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
-      <c r="B107" s="1">
-        <v>43848</v>
+      <c r="B107" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="C107" t="s">
         <v>5</v>
@@ -13294,13 +14208,21 @@
       <c r="F107">
         <v>68.636810302734375</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H107" s="3">
+        <f t="shared" si="31"/>
+        <v>18</v>
+      </c>
+      <c r="J107" s="3" t="str">
+        <f t="shared" si="17"/>
+        <v>18-1-2020</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
-      <c r="B108" s="1">
-        <v>43848</v>
+      <c r="B108" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="C108" t="s">
         <v>6</v>
@@ -13314,13 +14236,21 @@
       <c r="F108">
         <v>136.6606140136719</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H108" s="3">
+        <f t="shared" si="31"/>
+        <v>18</v>
+      </c>
+      <c r="J108" s="3" t="str">
+        <f t="shared" si="17"/>
+        <v>18-1-2020</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
-      <c r="B109" s="1">
-        <v>43848</v>
+      <c r="B109" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="C109" t="s">
         <v>7</v>
@@ -13328,13 +14258,21 @@
       <c r="D109" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H109" s="3">
+        <f t="shared" si="31"/>
+        <v>18</v>
+      </c>
+      <c r="J109" s="3" t="str">
+        <f t="shared" si="17"/>
+        <v>18-1-2020</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
-      <c r="B110" s="1">
-        <v>43849</v>
+      <c r="B110" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="C110" t="s">
         <v>2</v>
@@ -13348,13 +14286,21 @@
       <c r="F110">
         <v>109.9205703735352</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H110" s="3">
+        <f t="shared" ref="H110:H141" si="32">H109+1</f>
+        <v>19</v>
+      </c>
+      <c r="J110" s="3" t="str">
+        <f t="shared" si="17"/>
+        <v>19-1-2020</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
-      <c r="B111" s="1">
-        <v>43849</v>
+      <c r="B111" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="C111" t="s">
         <v>3</v>
@@ -13368,13 +14314,21 @@
       <c r="F111">
         <v>137.54264831542969</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H111" s="3">
+        <f t="shared" ref="H111:H142" si="33">H110</f>
+        <v>19</v>
+      </c>
+      <c r="J111" s="3" t="str">
+        <f t="shared" si="17"/>
+        <v>19-1-2020</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
-      <c r="B112" s="1">
-        <v>43849</v>
+      <c r="B112" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="C112" t="s">
         <v>4</v>
@@ -13388,13 +14342,21 @@
       <c r="F112">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H112" s="3">
+        <f t="shared" si="33"/>
+        <v>19</v>
+      </c>
+      <c r="J112" s="3" t="str">
+        <f t="shared" si="17"/>
+        <v>19-1-2020</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
-      <c r="B113" s="1">
-        <v>43849</v>
+      <c r="B113" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="C113" t="s">
         <v>5</v>
@@ -13408,13 +14370,21 @@
       <c r="F113">
         <v>120.7267532348633</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H113" s="3">
+        <f t="shared" si="33"/>
+        <v>19</v>
+      </c>
+      <c r="J113" s="3" t="str">
+        <f t="shared" si="17"/>
+        <v>19-1-2020</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
-      <c r="B114" s="1">
-        <v>43849</v>
+      <c r="B114" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="C114" t="s">
         <v>6</v>
@@ -13428,13 +14398,21 @@
       <c r="F114">
         <v>168.0071105957031</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H114" s="3">
+        <f t="shared" si="33"/>
+        <v>19</v>
+      </c>
+      <c r="J114" s="3" t="str">
+        <f t="shared" si="17"/>
+        <v>19-1-2020</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
-      <c r="B115" s="1">
-        <v>43849</v>
+      <c r="B115" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="C115" t="s">
         <v>7</v>
@@ -13448,13 +14426,21 @@
       <c r="F115">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H115" s="3">
+        <f t="shared" si="33"/>
+        <v>19</v>
+      </c>
+      <c r="J115" s="3" t="str">
+        <f t="shared" si="17"/>
+        <v>19-1-2020</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
-      <c r="B116" s="1">
-        <v>43850</v>
+      <c r="B116" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="C116" t="s">
         <v>2</v>
@@ -13468,13 +14454,21 @@
       <c r="F116">
         <v>102.00473785400391</v>
       </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H116" s="3">
+        <f t="shared" ref="H116:H147" si="34">H115+1</f>
+        <v>20</v>
+      </c>
+      <c r="J116" s="3" t="str">
+        <f t="shared" si="17"/>
+        <v>20-1-2020</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
-      <c r="B117" s="1">
-        <v>43850</v>
+      <c r="B117" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="C117" t="s">
         <v>3</v>
@@ -13488,13 +14482,21 @@
       <c r="F117">
         <v>152.6158752441406</v>
       </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H117" s="3">
+        <f t="shared" ref="H117:H148" si="35">H116</f>
+        <v>20</v>
+      </c>
+      <c r="J117" s="3" t="str">
+        <f t="shared" si="17"/>
+        <v>20-1-2020</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
-      <c r="B118" s="1">
-        <v>43850</v>
+      <c r="B118" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="C118" t="s">
         <v>4</v>
@@ -13508,13 +14510,21 @@
       <c r="F118">
         <v>15.601357460021971</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H118" s="3">
+        <f t="shared" si="35"/>
+        <v>20</v>
+      </c>
+      <c r="J118" s="3" t="str">
+        <f t="shared" si="17"/>
+        <v>20-1-2020</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
-      <c r="B119" s="1">
-        <v>43850</v>
+      <c r="B119" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="C119" t="s">
         <v>5</v>
@@ -13528,13 +14538,21 @@
       <c r="F119">
         <v>138.9219055175781</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H119" s="3">
+        <f t="shared" si="35"/>
+        <v>20</v>
+      </c>
+      <c r="J119" s="3" t="str">
+        <f t="shared" si="17"/>
+        <v>20-1-2020</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
-      <c r="B120" s="1">
-        <v>43850</v>
+      <c r="B120" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="C120" t="s">
         <v>6</v>
@@ -13548,13 +14566,21 @@
       <c r="F120">
         <v>121.9665069580078</v>
       </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H120" s="3">
+        <f t="shared" si="35"/>
+        <v>20</v>
+      </c>
+      <c r="J120" s="3" t="str">
+        <f t="shared" si="17"/>
+        <v>20-1-2020</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
-      <c r="B121" s="1">
-        <v>43850</v>
+      <c r="B121" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="C121" t="s">
         <v>7</v>
@@ -13568,13 +14594,21 @@
       <c r="F121">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H121" s="3">
+        <f t="shared" si="35"/>
+        <v>20</v>
+      </c>
+      <c r="J121" s="3" t="str">
+        <f t="shared" si="17"/>
+        <v>20-1-2020</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
-      <c r="B122" s="1">
-        <v>43851</v>
+      <c r="B122" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="C122" t="s">
         <v>2</v>
@@ -13588,13 +14622,21 @@
       <c r="F122">
         <v>111.68675231933589</v>
       </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H122" s="3">
+        <f t="shared" ref="H122:H153" si="36">H121+1</f>
+        <v>21</v>
+      </c>
+      <c r="J122" s="3" t="str">
+        <f t="shared" si="17"/>
+        <v>21-1-2020</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
-      <c r="B123" s="1">
-        <v>43851</v>
+      <c r="B123" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="C123" t="s">
         <v>3</v>
@@ -13608,13 +14650,21 @@
       <c r="F123">
         <v>177.23603820800781</v>
       </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H123" s="3">
+        <f t="shared" ref="H123:H154" si="37">H122</f>
+        <v>21</v>
+      </c>
+      <c r="J123" s="3" t="str">
+        <f t="shared" si="17"/>
+        <v>21-1-2020</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
-      <c r="B124" s="1">
-        <v>43851</v>
+      <c r="B124" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="C124" t="s">
         <v>4</v>
@@ -13628,13 +14678,21 @@
       <c r="F124">
         <v>9.4428234100341797</v>
       </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H124" s="3">
+        <f t="shared" si="37"/>
+        <v>21</v>
+      </c>
+      <c r="J124" s="3" t="str">
+        <f t="shared" si="17"/>
+        <v>21-1-2020</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
-      <c r="B125" s="1">
-        <v>43851</v>
+      <c r="B125" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="C125" t="s">
         <v>5</v>
@@ -13648,13 +14706,21 @@
       <c r="F125">
         <v>191.8072814941406</v>
       </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H125" s="3">
+        <f t="shared" si="37"/>
+        <v>21</v>
+      </c>
+      <c r="J125" s="3" t="str">
+        <f t="shared" si="17"/>
+        <v>21-1-2020</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
-      <c r="B126" s="1">
-        <v>43851</v>
+      <c r="B126" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="C126" t="s">
         <v>6</v>
@@ -13668,13 +14734,21 @@
       <c r="F126">
         <v>137.57484436035159</v>
       </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H126" s="3">
+        <f t="shared" si="37"/>
+        <v>21</v>
+      </c>
+      <c r="J126" s="3" t="str">
+        <f t="shared" si="17"/>
+        <v>21-1-2020</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
-      <c r="B127" s="1">
-        <v>43851</v>
+      <c r="B127" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="C127" t="s">
         <v>7</v>
@@ -13688,13 +14762,21 @@
       <c r="F127">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H127" s="3">
+        <f t="shared" si="37"/>
+        <v>21</v>
+      </c>
+      <c r="J127" s="3" t="str">
+        <f t="shared" si="17"/>
+        <v>21-1-2020</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
-      <c r="B128" s="1">
-        <v>43852</v>
+      <c r="B128" s="4" t="s">
+        <v>82</v>
       </c>
       <c r="C128" t="s">
         <v>2</v>
@@ -13708,13 +14790,21 @@
       <c r="F128">
         <v>134.0910339355469</v>
       </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H128" s="3">
+        <f t="shared" ref="H128:H159" si="38">H127+1</f>
+        <v>22</v>
+      </c>
+      <c r="J128" s="3" t="str">
+        <f t="shared" si="17"/>
+        <v>22-1-2020</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
-      <c r="B129" s="1">
-        <v>43852</v>
+      <c r="B129" s="4" t="s">
+        <v>82</v>
       </c>
       <c r="C129" t="s">
         <v>3</v>
@@ -13728,13 +14818,21 @@
       <c r="F129">
         <v>108.0265655517578</v>
       </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H129" s="3">
+        <f t="shared" ref="H129:H160" si="39">H128</f>
+        <v>22</v>
+      </c>
+      <c r="J129" s="3" t="str">
+        <f t="shared" si="17"/>
+        <v>22-1-2020</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
-      <c r="B130" s="1">
-        <v>43852</v>
+      <c r="B130" s="4" t="s">
+        <v>82</v>
       </c>
       <c r="C130" t="s">
         <v>4</v>
@@ -13748,13 +14846,21 @@
       <c r="F130">
         <v>28.24295616149902</v>
       </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H130" s="3">
+        <f t="shared" si="39"/>
+        <v>22</v>
+      </c>
+      <c r="J130" s="3" t="str">
+        <f t="shared" si="17"/>
+        <v>22-1-2020</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
-      <c r="B131" s="1">
-        <v>43852</v>
+      <c r="B131" s="4" t="s">
+        <v>82</v>
       </c>
       <c r="C131" t="s">
         <v>5</v>
@@ -13768,13 +14874,21 @@
       <c r="F131">
         <v>153.76469421386719</v>
       </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H131" s="3">
+        <f t="shared" si="39"/>
+        <v>22</v>
+      </c>
+      <c r="J131" s="3" t="str">
+        <f t="shared" ref="J131:J187" si="40">CONCATENATE(,H131,"-1","-2020")</f>
+        <v>22-1-2020</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
-      <c r="B132" s="1">
-        <v>43852</v>
+      <c r="B132" s="4" t="s">
+        <v>82</v>
       </c>
       <c r="C132" t="s">
         <v>6</v>
@@ -13788,13 +14902,21 @@
       <c r="F132">
         <v>105.80088043212891</v>
       </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H132" s="3">
+        <f t="shared" si="39"/>
+        <v>22</v>
+      </c>
+      <c r="J132" s="3" t="str">
+        <f t="shared" si="40"/>
+        <v>22-1-2020</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
-      <c r="B133" s="1">
-        <v>43852</v>
+      <c r="B133" s="4" t="s">
+        <v>82</v>
       </c>
       <c r="C133" t="s">
         <v>7</v>
@@ -13808,13 +14930,21 @@
       <c r="F133">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H133" s="3">
+        <f t="shared" si="39"/>
+        <v>22</v>
+      </c>
+      <c r="J133" s="3" t="str">
+        <f t="shared" si="40"/>
+        <v>22-1-2020</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
-      <c r="B134" s="1">
-        <v>43853</v>
+      <c r="B134" s="4" t="s">
+        <v>83</v>
       </c>
       <c r="C134" t="s">
         <v>2</v>
@@ -13828,13 +14958,21 @@
       <c r="F134">
         <v>111.1640701293945</v>
       </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H134" s="3">
+        <f t="shared" ref="H134:H165" si="41">H133+1</f>
+        <v>23</v>
+      </c>
+      <c r="J134" s="3" t="str">
+        <f t="shared" si="40"/>
+        <v>23-1-2020</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
-      <c r="B135" s="1">
-        <v>43853</v>
+      <c r="B135" s="4" t="s">
+        <v>83</v>
       </c>
       <c r="C135" t="s">
         <v>3</v>
@@ -13848,13 +14986,21 @@
       <c r="F135">
         <v>160.84039306640619</v>
       </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H135" s="3">
+        <f t="shared" ref="H135:H166" si="42">H134</f>
+        <v>23</v>
+      </c>
+      <c r="J135" s="3" t="str">
+        <f t="shared" si="40"/>
+        <v>23-1-2020</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
-      <c r="B136" s="1">
-        <v>43853</v>
+      <c r="B136" s="4" t="s">
+        <v>83</v>
       </c>
       <c r="C136" t="s">
         <v>4</v>
@@ -13868,13 +15014,21 @@
       <c r="F136">
         <v>2.2746210098266602</v>
       </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H136" s="3">
+        <f t="shared" si="42"/>
+        <v>23</v>
+      </c>
+      <c r="J136" s="3" t="str">
+        <f t="shared" si="40"/>
+        <v>23-1-2020</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
-      <c r="B137" s="1">
-        <v>43853</v>
+      <c r="B137" s="4" t="s">
+        <v>83</v>
       </c>
       <c r="C137" t="s">
         <v>5</v>
@@ -13888,13 +15042,21 @@
       <c r="F137">
         <v>168.15147399902341</v>
       </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H137" s="3">
+        <f t="shared" si="42"/>
+        <v>23</v>
+      </c>
+      <c r="J137" s="3" t="str">
+        <f t="shared" si="40"/>
+        <v>23-1-2020</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
-      <c r="B138" s="1">
-        <v>43853</v>
+      <c r="B138" s="4" t="s">
+        <v>83</v>
       </c>
       <c r="C138" t="s">
         <v>6</v>
@@ -13908,13 +15070,21 @@
       <c r="F138">
         <v>68.445976257324219</v>
       </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H138" s="3">
+        <f t="shared" si="42"/>
+        <v>23</v>
+      </c>
+      <c r="J138" s="3" t="str">
+        <f t="shared" si="40"/>
+        <v>23-1-2020</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
-      <c r="B139" s="1">
-        <v>43853</v>
+      <c r="B139" s="4" t="s">
+        <v>83</v>
       </c>
       <c r="C139" t="s">
         <v>7</v>
@@ -13928,13 +15098,21 @@
       <c r="F139">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H139" s="3">
+        <f t="shared" si="42"/>
+        <v>23</v>
+      </c>
+      <c r="J139" s="3" t="str">
+        <f t="shared" si="40"/>
+        <v>23-1-2020</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
-      <c r="B140" s="1">
-        <v>43854</v>
+      <c r="B140" s="4" t="s">
+        <v>84</v>
       </c>
       <c r="C140" t="s">
         <v>2</v>
@@ -13948,13 +15126,21 @@
       <c r="F140">
         <v>116.49017333984381</v>
       </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H140" s="3">
+        <f t="shared" ref="H140:H187" si="43">H139+1</f>
+        <v>24</v>
+      </c>
+      <c r="J140" s="3" t="str">
+        <f t="shared" si="40"/>
+        <v>24-1-2020</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
-      <c r="B141" s="1">
-        <v>43854</v>
+      <c r="B141" s="4" t="s">
+        <v>84</v>
       </c>
       <c r="C141" t="s">
         <v>3</v>
@@ -13968,13 +15154,21 @@
       <c r="F141">
         <v>159.0420837402344</v>
       </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H141" s="3">
+        <f t="shared" ref="H141:H187" si="44">H140</f>
+        <v>24</v>
+      </c>
+      <c r="J141" s="3" t="str">
+        <f t="shared" si="40"/>
+        <v>24-1-2020</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
-      <c r="B142" s="1">
-        <v>43854</v>
+      <c r="B142" s="4" t="s">
+        <v>84</v>
       </c>
       <c r="C142" t="s">
         <v>4</v>
@@ -13988,13 +15182,21 @@
       <c r="F142">
         <v>46.624320983886719</v>
       </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H142" s="3">
+        <f t="shared" si="44"/>
+        <v>24</v>
+      </c>
+      <c r="J142" s="3" t="str">
+        <f t="shared" si="40"/>
+        <v>24-1-2020</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
-      <c r="B143" s="1">
-        <v>43854</v>
+      <c r="B143" s="4" t="s">
+        <v>84</v>
       </c>
       <c r="C143" t="s">
         <v>5</v>
@@ -14008,13 +15210,21 @@
       <c r="F143">
         <v>176.27998352050781</v>
       </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H143" s="3">
+        <f t="shared" si="44"/>
+        <v>24</v>
+      </c>
+      <c r="J143" s="3" t="str">
+        <f t="shared" si="40"/>
+        <v>24-1-2020</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
-      <c r="B144" s="1">
-        <v>43854</v>
+      <c r="B144" s="4" t="s">
+        <v>84</v>
       </c>
       <c r="C144" t="s">
         <v>6</v>
@@ -14028,13 +15238,21 @@
       <c r="F144">
         <v>92.066673278808594</v>
       </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H144" s="3">
+        <f t="shared" si="44"/>
+        <v>24</v>
+      </c>
+      <c r="J144" s="3" t="str">
+        <f t="shared" si="40"/>
+        <v>24-1-2020</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
-      <c r="B145" s="1">
-        <v>43854</v>
+      <c r="B145" s="4" t="s">
+        <v>84</v>
       </c>
       <c r="C145" t="s">
         <v>7</v>
@@ -14048,13 +15266,21 @@
       <c r="F145">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H145" s="3">
+        <f t="shared" si="44"/>
+        <v>24</v>
+      </c>
+      <c r="J145" s="3" t="str">
+        <f t="shared" si="40"/>
+        <v>24-1-2020</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
-      <c r="B146" s="1">
-        <v>43855</v>
+      <c r="B146" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="C146" t="s">
         <v>2</v>
@@ -14068,13 +15294,21 @@
       <c r="F146">
         <v>137.0622863769531</v>
       </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H146" s="3">
+        <f t="shared" ref="H146:H187" si="45">H145+1</f>
+        <v>25</v>
+      </c>
+      <c r="J146" s="3" t="str">
+        <f t="shared" si="40"/>
+        <v>25-1-2020</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>146</v>
       </c>
-      <c r="B147" s="1">
-        <v>43855</v>
+      <c r="B147" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="C147" t="s">
         <v>3</v>
@@ -14088,13 +15322,21 @@
       <c r="F147">
         <v>148.7239074707031</v>
       </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H147" s="3">
+        <f t="shared" ref="H147:H187" si="46">H146</f>
+        <v>25</v>
+      </c>
+      <c r="J147" s="3" t="str">
+        <f t="shared" si="40"/>
+        <v>25-1-2020</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
-      <c r="B148" s="1">
-        <v>43855</v>
+      <c r="B148" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="C148" t="s">
         <v>4</v>
@@ -14108,13 +15350,21 @@
       <c r="F148">
         <v>93.918487548828125</v>
       </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H148" s="3">
+        <f t="shared" si="46"/>
+        <v>25</v>
+      </c>
+      <c r="J148" s="3" t="str">
+        <f t="shared" si="40"/>
+        <v>25-1-2020</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>148</v>
       </c>
-      <c r="B149" s="1">
-        <v>43855</v>
+      <c r="B149" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="C149" t="s">
         <v>5</v>
@@ -14128,13 +15378,21 @@
       <c r="F149">
         <v>198.69342041015619</v>
       </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H149" s="3">
+        <f t="shared" si="46"/>
+        <v>25</v>
+      </c>
+      <c r="J149" s="3" t="str">
+        <f t="shared" si="40"/>
+        <v>25-1-2020</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>149</v>
       </c>
-      <c r="B150" s="1">
-        <v>43855</v>
+      <c r="B150" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="C150" t="s">
         <v>6</v>
@@ -14148,13 +15406,21 @@
       <c r="F150">
         <v>163.7008361816406</v>
       </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H150" s="3">
+        <f t="shared" si="46"/>
+        <v>25</v>
+      </c>
+      <c r="J150" s="3" t="str">
+        <f t="shared" si="40"/>
+        <v>25-1-2020</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>150</v>
       </c>
-      <c r="B151" s="1">
-        <v>43855</v>
+      <c r="B151" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="C151" t="s">
         <v>7</v>
@@ -14168,13 +15434,21 @@
       <c r="F151">
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H151" s="3">
+        <f t="shared" si="46"/>
+        <v>25</v>
+      </c>
+      <c r="J151" s="3" t="str">
+        <f t="shared" si="40"/>
+        <v>25-1-2020</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>151</v>
       </c>
-      <c r="B152" s="1">
-        <v>43856</v>
+      <c r="B152" s="4" t="s">
+        <v>86</v>
       </c>
       <c r="C152" t="s">
         <v>2</v>
@@ -14188,13 +15462,21 @@
       <c r="F152">
         <v>141.20942687988281</v>
       </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H152" s="3">
+        <f t="shared" ref="H152:H187" si="47">H151+1</f>
+        <v>26</v>
+      </c>
+      <c r="J152" s="3" t="str">
+        <f t="shared" si="40"/>
+        <v>26-1-2020</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>152</v>
       </c>
-      <c r="B153" s="1">
-        <v>43856</v>
+      <c r="B153" s="4" t="s">
+        <v>86</v>
       </c>
       <c r="C153" t="s">
         <v>3</v>
@@ -14208,13 +15490,21 @@
       <c r="F153">
         <v>212.37974548339841</v>
       </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H153" s="3">
+        <f t="shared" ref="H153:H187" si="48">H152</f>
+        <v>26</v>
+      </c>
+      <c r="J153" s="3" t="str">
+        <f t="shared" si="40"/>
+        <v>26-1-2020</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>153</v>
       </c>
-      <c r="B154" s="1">
-        <v>43856</v>
+      <c r="B154" s="4" t="s">
+        <v>86</v>
       </c>
       <c r="C154" t="s">
         <v>4</v>
@@ -14228,13 +15518,21 @@
       <c r="F154">
         <v>65.411117553710937</v>
       </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H154" s="3">
+        <f t="shared" si="48"/>
+        <v>26</v>
+      </c>
+      <c r="J154" s="3" t="str">
+        <f t="shared" si="40"/>
+        <v>26-1-2020</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>154</v>
       </c>
-      <c r="B155" s="1">
-        <v>43856</v>
+      <c r="B155" s="4" t="s">
+        <v>86</v>
       </c>
       <c r="C155" t="s">
         <v>5</v>
@@ -14248,13 +15546,21 @@
       <c r="F155">
         <v>320.88253784179687</v>
       </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H155" s="3">
+        <f t="shared" si="48"/>
+        <v>26</v>
+      </c>
+      <c r="J155" s="3" t="str">
+        <f t="shared" si="40"/>
+        <v>26-1-2020</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>155</v>
       </c>
-      <c r="B156" s="1">
-        <v>43856</v>
+      <c r="B156" s="4" t="s">
+        <v>86</v>
       </c>
       <c r="C156" t="s">
         <v>6</v>
@@ -14268,13 +15574,21 @@
       <c r="F156">
         <v>173.2071838378906</v>
       </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H156" s="3">
+        <f t="shared" si="48"/>
+        <v>26</v>
+      </c>
+      <c r="J156" s="3" t="str">
+        <f t="shared" si="40"/>
+        <v>26-1-2020</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>156</v>
       </c>
-      <c r="B157" s="1">
-        <v>43856</v>
+      <c r="B157" s="4" t="s">
+        <v>86</v>
       </c>
       <c r="C157" t="s">
         <v>7</v>
@@ -14288,13 +15602,21 @@
       <c r="F157">
         <v>0</v>
       </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H157" s="3">
+        <f t="shared" si="48"/>
+        <v>26</v>
+      </c>
+      <c r="J157" s="3" t="str">
+        <f t="shared" si="40"/>
+        <v>26-1-2020</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>157</v>
       </c>
-      <c r="B158" s="1">
-        <v>43857</v>
+      <c r="B158" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="C158" t="s">
         <v>2</v>
@@ -14308,13 +15630,21 @@
       <c r="F158">
         <v>75.021598815917969</v>
       </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H158" s="3">
+        <f t="shared" ref="H158:H187" si="49">H157+1</f>
+        <v>27</v>
+      </c>
+      <c r="J158" s="3" t="str">
+        <f t="shared" si="40"/>
+        <v>27-1-2020</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>158</v>
       </c>
-      <c r="B159" s="1">
-        <v>43857</v>
+      <c r="B159" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="C159" t="s">
         <v>3</v>
@@ -14328,13 +15658,21 @@
       <c r="F159">
         <v>122.7295608520508</v>
       </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H159" s="3">
+        <f t="shared" ref="H159:H187" si="50">H158</f>
+        <v>27</v>
+      </c>
+      <c r="J159" s="3" t="str">
+        <f t="shared" si="40"/>
+        <v>27-1-2020</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>159</v>
       </c>
-      <c r="B160" s="1">
-        <v>43857</v>
+      <c r="B160" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="C160" t="s">
         <v>4</v>
@@ -14348,13 +15686,21 @@
       <c r="F160">
         <v>80.148826599121094</v>
       </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H160" s="3">
+        <f t="shared" si="50"/>
+        <v>27</v>
+      </c>
+      <c r="J160" s="3" t="str">
+        <f t="shared" si="40"/>
+        <v>27-1-2020</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>160</v>
       </c>
-      <c r="B161" s="1">
-        <v>43857</v>
+      <c r="B161" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="C161" t="s">
         <v>5</v>
@@ -14368,13 +15714,21 @@
       <c r="F161">
         <v>283.98086547851562</v>
       </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H161" s="3">
+        <f t="shared" si="50"/>
+        <v>27</v>
+      </c>
+      <c r="J161" s="3" t="str">
+        <f t="shared" si="40"/>
+        <v>27-1-2020</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>161</v>
       </c>
-      <c r="B162" s="1">
-        <v>43857</v>
+      <c r="B162" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="C162" t="s">
         <v>6</v>
@@ -14388,13 +15742,21 @@
       <c r="F162">
         <v>164.7177734375</v>
       </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H162" s="3">
+        <f t="shared" si="50"/>
+        <v>27</v>
+      </c>
+      <c r="J162" s="3" t="str">
+        <f t="shared" si="40"/>
+        <v>27-1-2020</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>162</v>
       </c>
-      <c r="B163" s="1">
-        <v>43857</v>
+      <c r="B163" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="C163" t="s">
         <v>7</v>
@@ -14408,13 +15770,21 @@
       <c r="F163">
         <v>0</v>
       </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H163" s="3">
+        <f t="shared" si="50"/>
+        <v>27</v>
+      </c>
+      <c r="J163" s="3" t="str">
+        <f t="shared" si="40"/>
+        <v>27-1-2020</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>163</v>
       </c>
-      <c r="B164" s="1">
-        <v>43858</v>
+      <c r="B164" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="C164" t="s">
         <v>2</v>
@@ -14428,13 +15798,21 @@
       <c r="F164">
         <v>68.700157165527344</v>
       </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H164" s="3">
+        <f t="shared" ref="H164:H187" si="51">H163+1</f>
+        <v>28</v>
+      </c>
+      <c r="J164" s="3" t="str">
+        <f t="shared" si="40"/>
+        <v>28-1-2020</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>164</v>
       </c>
-      <c r="B165" s="1">
-        <v>43858</v>
+      <c r="B165" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="C165" t="s">
         <v>3</v>
@@ -14448,13 +15826,21 @@
       <c r="F165">
         <v>187.37298583984381</v>
       </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H165" s="3">
+        <f t="shared" ref="H165:H187" si="52">H164</f>
+        <v>28</v>
+      </c>
+      <c r="J165" s="3" t="str">
+        <f t="shared" si="40"/>
+        <v>28-1-2020</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>165</v>
       </c>
-      <c r="B166" s="1">
-        <v>43858</v>
+      <c r="B166" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="C166" t="s">
         <v>4</v>
@@ -14468,13 +15854,21 @@
       <c r="F166">
         <v>126.93597412109381</v>
       </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H166" s="3">
+        <f t="shared" si="52"/>
+        <v>28</v>
+      </c>
+      <c r="J166" s="3" t="str">
+        <f t="shared" si="40"/>
+        <v>28-1-2020</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>166</v>
       </c>
-      <c r="B167" s="1">
-        <v>43858</v>
+      <c r="B167" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="C167" t="s">
         <v>5</v>
@@ -14488,13 +15882,21 @@
       <c r="F167">
         <v>270.23992919921881</v>
       </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H167" s="3">
+        <f t="shared" si="52"/>
+        <v>28</v>
+      </c>
+      <c r="J167" s="3" t="str">
+        <f t="shared" si="40"/>
+        <v>28-1-2020</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>167</v>
       </c>
-      <c r="B168" s="1">
-        <v>43858</v>
+      <c r="B168" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="C168" t="s">
         <v>6</v>
@@ -14508,13 +15910,21 @@
       <c r="F168">
         <v>118.7963943481445</v>
       </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H168" s="3">
+        <f t="shared" si="52"/>
+        <v>28</v>
+      </c>
+      <c r="J168" s="3" t="str">
+        <f t="shared" si="40"/>
+        <v>28-1-2020</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>168</v>
       </c>
-      <c r="B169" s="1">
-        <v>43858</v>
+      <c r="B169" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="C169" t="s">
         <v>7</v>
@@ -14522,13 +15932,21 @@
       <c r="D169" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H169" s="3">
+        <f t="shared" si="52"/>
+        <v>28</v>
+      </c>
+      <c r="J169" s="3" t="str">
+        <f t="shared" si="40"/>
+        <v>28-1-2020</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>169</v>
       </c>
-      <c r="B170" s="1">
-        <v>43859</v>
+      <c r="B170" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="C170" t="s">
         <v>2</v>
@@ -14542,13 +15960,21 @@
       <c r="F170">
         <v>156.00260925292969</v>
       </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H170" s="3">
+        <f t="shared" ref="H170:H187" si="53">H169+1</f>
+        <v>29</v>
+      </c>
+      <c r="J170" s="3" t="str">
+        <f t="shared" si="40"/>
+        <v>29-1-2020</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>170</v>
       </c>
-      <c r="B171" s="1">
-        <v>43859</v>
+      <c r="B171" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="C171" t="s">
         <v>3</v>
@@ -14562,13 +15988,21 @@
       <c r="F171">
         <v>150.5159912109375</v>
       </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H171" s="3">
+        <f t="shared" ref="H171:H187" si="54">H170</f>
+        <v>29</v>
+      </c>
+      <c r="J171" s="3" t="str">
+        <f t="shared" si="40"/>
+        <v>29-1-2020</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>171</v>
       </c>
-      <c r="B172" s="1">
-        <v>43859</v>
+      <c r="B172" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="C172" t="s">
         <v>4</v>
@@ -14582,13 +16016,21 @@
       <c r="F172">
         <v>2.6194330304861069E-2</v>
       </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H172" s="3">
+        <f t="shared" si="54"/>
+        <v>29</v>
+      </c>
+      <c r="J172" s="3" t="str">
+        <f t="shared" si="40"/>
+        <v>29-1-2020</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>172</v>
       </c>
-      <c r="B173" s="1">
-        <v>43859</v>
+      <c r="B173" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="C173" t="s">
         <v>5</v>
@@ -14602,13 +16044,21 @@
       <c r="F173">
         <v>383.94509887695312</v>
       </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H173" s="3">
+        <f t="shared" si="54"/>
+        <v>29</v>
+      </c>
+      <c r="J173" s="3" t="str">
+        <f t="shared" si="40"/>
+        <v>29-1-2020</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>173</v>
       </c>
-      <c r="B174" s="1">
-        <v>43859</v>
+      <c r="B174" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="C174" t="s">
         <v>6</v>
@@ -14622,13 +16072,21 @@
       <c r="F174">
         <v>146.36553955078119</v>
       </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H174" s="3">
+        <f t="shared" si="54"/>
+        <v>29</v>
+      </c>
+      <c r="J174" s="3" t="str">
+        <f t="shared" si="40"/>
+        <v>29-1-2020</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>174</v>
       </c>
-      <c r="B175" s="1">
-        <v>43859</v>
+      <c r="B175" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="C175" t="s">
         <v>7</v>
@@ -14642,13 +16100,21 @@
       <c r="F175">
         <v>0</v>
       </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H175" s="3">
+        <f t="shared" si="54"/>
+        <v>29</v>
+      </c>
+      <c r="J175" s="3" t="str">
+        <f t="shared" si="40"/>
+        <v>29-1-2020</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>175</v>
       </c>
-      <c r="B176" s="1">
-        <v>43860</v>
+      <c r="B176" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="C176" t="s">
         <v>2</v>
@@ -14662,13 +16128,21 @@
       <c r="F176">
         <v>147.65110778808591</v>
       </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H176" s="3">
+        <f t="shared" ref="H176:H187" si="55">H175+1</f>
+        <v>30</v>
+      </c>
+      <c r="J176" s="3" t="str">
+        <f t="shared" si="40"/>
+        <v>30-1-2020</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>176</v>
       </c>
-      <c r="B177" s="1">
-        <v>43860</v>
+      <c r="B177" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="C177" t="s">
         <v>3</v>
@@ -14682,13 +16156,21 @@
       <c r="F177">
         <v>148.9947509765625</v>
       </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H177" s="3">
+        <f t="shared" ref="H177:H187" si="56">H176</f>
+        <v>30</v>
+      </c>
+      <c r="J177" s="3" t="str">
+        <f t="shared" si="40"/>
+        <v>30-1-2020</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>177</v>
       </c>
-      <c r="B178" s="1">
-        <v>43860</v>
+      <c r="B178" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="C178" t="s">
         <v>4</v>
@@ -14702,13 +16184,21 @@
       <c r="F178">
         <v>3.1453671554724373E-2</v>
       </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H178" s="3">
+        <f t="shared" si="56"/>
+        <v>30</v>
+      </c>
+      <c r="J178" s="3" t="str">
+        <f t="shared" si="40"/>
+        <v>30-1-2020</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>178</v>
       </c>
-      <c r="B179" s="1">
-        <v>43860</v>
+      <c r="B179" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="C179" t="s">
         <v>5</v>
@@ -14722,13 +16212,21 @@
       <c r="F179">
         <v>347.52785237630212</v>
       </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H179" s="3">
+        <f t="shared" si="56"/>
+        <v>30</v>
+      </c>
+      <c r="J179" s="3" t="str">
+        <f t="shared" si="40"/>
+        <v>30-1-2020</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>179</v>
       </c>
-      <c r="B180" s="1">
-        <v>43860</v>
+      <c r="B180" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="C180" t="s">
         <v>6</v>
@@ -14742,13 +16240,21 @@
       <c r="F180">
         <v>173.38299560546881</v>
       </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H180" s="3">
+        <f t="shared" si="56"/>
+        <v>30</v>
+      </c>
+      <c r="J180" s="3" t="str">
+        <f t="shared" si="40"/>
+        <v>30-1-2020</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>180</v>
       </c>
-      <c r="B181" s="1">
-        <v>43860</v>
+      <c r="B181" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="C181" t="s">
         <v>7</v>
@@ -14762,13 +16268,21 @@
       <c r="F181">
         <v>0</v>
       </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H181" s="3">
+        <f t="shared" si="56"/>
+        <v>30</v>
+      </c>
+      <c r="J181" s="3" t="str">
+        <f t="shared" si="40"/>
+        <v>30-1-2020</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>181</v>
       </c>
-      <c r="B182" s="1">
-        <v>43861</v>
+      <c r="B182" s="4" t="s">
+        <v>91</v>
       </c>
       <c r="C182" t="s">
         <v>2</v>
@@ -14782,13 +16296,21 @@
       <c r="F182">
         <v>150.3477478027344</v>
       </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H182" s="3">
+        <f t="shared" ref="H182:H187" si="57">H181+1</f>
+        <v>31</v>
+      </c>
+      <c r="J182" s="3" t="str">
+        <f t="shared" si="40"/>
+        <v>31-1-2020</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>182</v>
       </c>
-      <c r="B183" s="1">
-        <v>43861</v>
+      <c r="B183" s="4" t="s">
+        <v>91</v>
       </c>
       <c r="C183" t="s">
         <v>3</v>
@@ -14802,13 +16324,21 @@
       <c r="F183">
         <v>121.0707473754883</v>
       </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H183" s="3">
+        <f t="shared" ref="H183:H187" si="58">H182</f>
+        <v>31</v>
+      </c>
+      <c r="J183" s="3" t="str">
+        <f t="shared" si="40"/>
+        <v>31-1-2020</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>183</v>
       </c>
-      <c r="B184" s="1">
-        <v>43861</v>
+      <c r="B184" s="4" t="s">
+        <v>91</v>
       </c>
       <c r="C184" t="s">
         <v>4</v>
@@ -14822,13 +16352,21 @@
       <c r="F184">
         <v>0</v>
       </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H184" s="3">
+        <f t="shared" si="58"/>
+        <v>31</v>
+      </c>
+      <c r="J184" s="3" t="str">
+        <f t="shared" si="40"/>
+        <v>31-1-2020</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>184</v>
       </c>
-      <c r="B185" s="1">
-        <v>43861</v>
+      <c r="B185" s="4" t="s">
+        <v>91</v>
       </c>
       <c r="C185" t="s">
         <v>5</v>
@@ -14842,13 +16380,21 @@
       <c r="F185">
         <v>267.25601196289062</v>
       </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H185" s="3">
+        <f t="shared" si="58"/>
+        <v>31</v>
+      </c>
+      <c r="J185" s="3" t="str">
+        <f t="shared" si="40"/>
+        <v>31-1-2020</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>185</v>
       </c>
-      <c r="B186" s="1">
-        <v>43861</v>
+      <c r="B186" s="4" t="s">
+        <v>91</v>
       </c>
       <c r="C186" t="s">
         <v>6</v>
@@ -14862,13 +16408,21 @@
       <c r="F186">
         <v>226.47052001953119</v>
       </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H186" s="3">
+        <f t="shared" si="58"/>
+        <v>31</v>
+      </c>
+      <c r="J186" s="3" t="str">
+        <f t="shared" si="40"/>
+        <v>31-1-2020</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>186</v>
       </c>
-      <c r="B187" s="1">
-        <v>43861</v>
+      <c r="B187" s="4" t="s">
+        <v>91</v>
       </c>
       <c r="C187" t="s">
         <v>7</v>
@@ -14882,20 +16436,28 @@
       <c r="F187">
         <v>0</v>
       </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H187" s="3">
+        <f t="shared" si="58"/>
+        <v>31</v>
+      </c>
+      <c r="J187" s="3" t="str">
+        <f t="shared" si="40"/>
+        <v>31-1-2020</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B188" s="1"/>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B189" s="1"/>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B190" s="1"/>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B191" s="1"/>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B192" s="1"/>
     </row>
     <row r="193" spans="2:2" x14ac:dyDescent="0.25">
@@ -15065,7 +16627,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -15074,7 +16636,7 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15109,7 +16671,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B8"/>
+      <selection activeCell="B1" sqref="B1:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
